--- a/case_studies_ah/Results Logs/Sensitivity Analysis Lookback Period.xlsx
+++ b/case_studies_ah/Results Logs/Sensitivity Analysis Lookback Period.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanliu/Documents/Erasmus University/MSc Quantitive Marketing and Business Analytics/P3/Seminar Case Study/Data/case_studies_ah/Forecasters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanliu/Documents/Erasmus University/MSc Quantitive Marketing and Business Analytics/P3/Seminar Case Study/Data/case_studies_ah/Results Logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327278DA-3E85-6447-9C0F-6E67931E2543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704F63AA-078D-3146-BB62-792237854048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4640" yWindow="760" windowWidth="30240" windowHeight="18880" firstSheet="2" activeTab="8" xr2:uid="{5A6E06D8-C402-AE46-8F2C-C43A97C39B9D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" firstSheet="2" activeTab="9" xr2:uid="{5A6E06D8-C402-AE46-8F2C-C43A97C39B9D}"/>
   </bookViews>
   <sheets>
     <sheet name="NGAS, CRUDE_PETRO" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="MAIZE RESULT" sheetId="14" r:id="rId4"/>
     <sheet name="SUNFLOWER RESULT" sheetId="15" r:id="rId5"/>
     <sheet name="SARIMAX QLOSS" sheetId="10" r:id="rId6"/>
-    <sheet name="SARIMAX QLOSS with seed" sheetId="12" r:id="rId7"/>
-    <sheet name="SARIMAX QLOSS with seed NEW" sheetId="18" r:id="rId8"/>
+    <sheet name="SARIMAX QLOSS with seed" sheetId="12" state="hidden" r:id="rId7"/>
+    <sheet name="SARIMAX QLOSS NETHERLANDS" sheetId="18" r:id="rId8"/>
     <sheet name="SARIMAX QLOSS SPAIN" sheetId="16" r:id="rId9"/>
     <sheet name="SARIMAX QLOSS GERMANY" sheetId="17" r:id="rId10"/>
   </sheets>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="62">
   <si>
     <t>Commodity</t>
   </si>
@@ -449,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -491,15 +491,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -514,14 +505,37 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -534,6 +548,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -553,20 +576,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -578,48 +591,135 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11038,7 +11138,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SARIMAX QLOSS with seed NEW'!$A$6</c:f>
+              <c:f>'SARIMAX QLOSS NETHERLANDS'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11061,23 +11161,26 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS with seed NEW'!$B$5:$F$5</c:f>
+              <c:f>'SARIMAX QLOSS NETHERLANDS'!$B$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -11085,23 +11188,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS with seed NEW'!$B$6:$F$6</c:f>
+              <c:f>'SARIMAX QLOSS NETHERLANDS'!$B$6:$G$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0" formatCode="0.000">
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0.0000">
+                  <c:v>2.1930772811174299E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>3.4578815102577203E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2" formatCode="General">
                   <c:v>1.07929985970258E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3" formatCode="General">
                   <c:v>1.7073310911655398E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4" formatCode="General">
                   <c:v>3.04000545293092E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5" formatCode="General">
                   <c:v>5.16424067318439E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -11119,7 +11225,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SARIMAX QLOSS with seed NEW'!$A$13</c:f>
+              <c:f>'SARIMAX QLOSS NETHERLANDS'!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11142,23 +11248,26 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS with seed NEW'!$B$5:$F$5</c:f>
+              <c:f>'SARIMAX QLOSS NETHERLANDS'!$B$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -11166,23 +11275,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS with seed NEW'!$B$13:$F$13</c:f>
+              <c:f>'SARIMAX QLOSS NETHERLANDS'!$B$13:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.7124306187033601E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1.50199178606271E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>5.8424868620932102E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>6.43256586045026E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>4.1782734915614102E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -11279,7 +11391,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11477,7 +11589,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SARIMAX QLOSS with seed NEW'!$A$7</c:f>
+              <c:f>'SARIMAX QLOSS NETHERLANDS'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11500,23 +11612,26 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS with seed NEW'!$B$5:$F$5</c:f>
+              <c:f>'SARIMAX QLOSS NETHERLANDS'!$B$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -11524,23 +11639,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS with seed NEW'!$B$7:$F$7</c:f>
+              <c:f>'SARIMAX QLOSS NETHERLANDS'!$B$7:$G$7</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0" formatCode="General">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0.0000">
+                  <c:v>4.8458132892846999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4.2829886078834499E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2" formatCode="0.000">
                   <c:v>0.117285922169685</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3" formatCode="0.000">
                   <c:v>2.5214286521077101E-2</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="General">
+                <c:pt idx="4">
                   <c:v>9.7052827477455098E-2</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="General">
+                <c:pt idx="5">
                   <c:v>1.9371462985873202E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -11558,7 +11676,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SARIMAX QLOSS with seed NEW'!$A$18</c:f>
+              <c:f>'SARIMAX QLOSS NETHERLANDS'!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11581,23 +11699,26 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS with seed NEW'!$B$5:$F$5</c:f>
+              <c:f>'SARIMAX QLOSS NETHERLANDS'!$B$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -11605,23 +11726,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS with seed NEW'!$B$18:$F$18</c:f>
+              <c:f>'SARIMAX QLOSS NETHERLANDS'!$B$18:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.4020601063966699E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1.5607588924467499E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2.36118044704198E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1.83532107621431E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1.4022849500179201E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -11718,7 +11842,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11916,7 +12040,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SARIMAX QLOSS with seed NEW'!$A$8</c:f>
+              <c:f>'SARIMAX QLOSS NETHERLANDS'!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11939,23 +12063,26 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS with seed NEW'!$B$5:$F$5</c:f>
+              <c:f>'SARIMAX QLOSS NETHERLANDS'!$B$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -11963,23 +12090,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS with seed NEW'!$B$8:$F$8</c:f>
+              <c:f>'SARIMAX QLOSS NETHERLANDS'!$B$8:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0.0000">
+                  <c:v>0.28228414058685303</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.151197358965873</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.23719403147697399</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.18943491578102101</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.31120327115058899</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.48921799659728998</c:v>
                 </c:pt>
               </c:numCache>
@@ -11997,7 +12127,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SARIMAX QLOSS with seed NEW'!$A$23</c:f>
+              <c:f>'SARIMAX QLOSS NETHERLANDS'!$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12020,23 +12150,26 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS with seed NEW'!$B$5:$F$5</c:f>
+              <c:f>'SARIMAX QLOSS NETHERLANDS'!$B$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -12044,23 +12177,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS with seed NEW'!$B$23:$F$23</c:f>
+              <c:f>'SARIMAX QLOSS NETHERLANDS'!$B$23:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.17199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.121985003352165</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>8.43E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>6.4583964645862496E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2.30323933064937E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>3.2308753579854903E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -12157,7 +12293,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -12330,7 +12466,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SARIMAX QLOSS with seed NEW'!$A$28</c:f>
+              <c:f>'SARIMAX QLOSS NETHERLANDS'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12353,7 +12489,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS with seed NEW'!$B$27:$F$27</c:f>
+              <c:f>'SARIMAX QLOSS NETHERLANDS'!$C$27:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -12377,7 +12513,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS with seed NEW'!$B$28:$F$28</c:f>
+              <c:f>'SARIMAX QLOSS NETHERLANDS'!$C$28:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -12411,7 +12547,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SARIMAX QLOSS with seed NEW'!$A$29</c:f>
+              <c:f>'SARIMAX QLOSS NETHERLANDS'!$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12434,7 +12570,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS with seed NEW'!$B$27:$F$27</c:f>
+              <c:f>'SARIMAX QLOSS NETHERLANDS'!$C$27:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -12458,7 +12594,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS with seed NEW'!$B$29:$F$29</c:f>
+              <c:f>'SARIMAX QLOSS NETHERLANDS'!$C$29:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -12492,7 +12628,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SARIMAX QLOSS with seed NEW'!$A$30</c:f>
+              <c:f>'SARIMAX QLOSS NETHERLANDS'!$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12515,7 +12651,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS with seed NEW'!$B$27:$F$27</c:f>
+              <c:f>'SARIMAX QLOSS NETHERLANDS'!$C$27:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -12539,7 +12675,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS with seed NEW'!$B$30:$F$30</c:f>
+              <c:f>'SARIMAX QLOSS NETHERLANDS'!$C$30:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -12825,7 +12961,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SARIMAX QLOSS with seed NEW'!$A$36</c:f>
+              <c:f>'SARIMAX QLOSS NETHERLANDS'!$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12848,7 +12984,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS with seed NEW'!$B$35:$F$35</c:f>
+              <c:f>'SARIMAX QLOSS NETHERLANDS'!$C$35:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -12872,7 +13008,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS with seed NEW'!$B$36:$F$36</c:f>
+              <c:f>'SARIMAX QLOSS NETHERLANDS'!$C$36:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -12906,7 +13042,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SARIMAX QLOSS with seed NEW'!$A$37</c:f>
+              <c:f>'SARIMAX QLOSS NETHERLANDS'!$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12929,7 +13065,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS with seed NEW'!$B$35:$F$35</c:f>
+              <c:f>'SARIMAX QLOSS NETHERLANDS'!$C$35:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -12953,7 +13089,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS with seed NEW'!$B$37:$F$37</c:f>
+              <c:f>'SARIMAX QLOSS NETHERLANDS'!$C$37:$G$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -12987,7 +13123,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SARIMAX QLOSS with seed NEW'!$A$38</c:f>
+              <c:f>'SARIMAX QLOSS NETHERLANDS'!$A$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13010,7 +13146,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS with seed NEW'!$B$35:$F$35</c:f>
+              <c:f>'SARIMAX QLOSS NETHERLANDS'!$C$35:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -13034,7 +13170,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS with seed NEW'!$B$38:$F$38</c:f>
+              <c:f>'SARIMAX QLOSS NETHERLANDS'!$C$38:$G$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -13869,23 +14005,26 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS SPAIN'!$B$5:$F$5</c:f>
+              <c:f>'SARIMAX QLOSS SPAIN'!$B$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -13893,23 +14032,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS SPAIN'!$B$6:$F$6</c:f>
+              <c:f>'SARIMAX QLOSS SPAIN'!$B$6:$G$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>2.9600566253066E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.8639307245612099E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1.2322018854320001E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1.3290189206600101E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1.6699342057108799E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1.90052222460508E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -13950,23 +14092,26 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS SPAIN'!$B$5:$F$5</c:f>
+              <c:f>'SARIMAX QLOSS SPAIN'!$B$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -13974,23 +14119,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS SPAIN'!$B$13:$F$13</c:f>
+              <c:f>'SARIMAX QLOSS SPAIN'!$B$13:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.29938253760337E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1.3558449223637499E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1.2607739306986301E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1.0078589431941501E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>8.6951246485114098E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -14087,7 +14235,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -14308,23 +14456,26 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS SPAIN'!$B$5:$F$5</c:f>
+              <c:f>'SARIMAX QLOSS SPAIN'!$B$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -14332,23 +14483,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS SPAIN'!$B$7:$F$7</c:f>
+              <c:f>'SARIMAX QLOSS SPAIN'!$B$7:$G$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>2.6333356276154501E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4.7536794096231398E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>9.3563191592693301E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>7.6258787885308196E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>5.8908024802803898E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5.3341863676905597E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -14389,23 +14543,26 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS SPAIN'!$B$5:$F$5</c:f>
+              <c:f>'SARIMAX QLOSS SPAIN'!$B$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -14413,23 +14570,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS SPAIN'!$B$18:$F$18</c:f>
+              <c:f>'SARIMAX QLOSS SPAIN'!$B$18:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.1410217732191001E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>3.62224457785487E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>9.2684952542185697E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>8.3763077855110099E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>6.1380933038890301E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -14526,7 +14686,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -14747,23 +14907,26 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS SPAIN'!$B$5:$F$5</c:f>
+              <c:f>'SARIMAX QLOSS SPAIN'!$B$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -14771,23 +14934,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS SPAIN'!$B$8:$F$8</c:f>
+              <c:f>'SARIMAX QLOSS SPAIN'!$B$8:$G$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0.28841677308082497</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.27688288688659601</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1.17601323127746</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1.15297639369964</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.16403807699680301</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.13300071656703899</c:v>
                 </c:pt>
               </c:numCache>
@@ -14828,23 +14994,26 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS SPAIN'!$B$5:$F$5</c:f>
+              <c:f>'SARIMAX QLOSS SPAIN'!$B$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -14852,23 +15021,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS SPAIN'!$B$23:$F$23</c:f>
+              <c:f>'SARIMAX QLOSS SPAIN'!$B$23:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.13427063822746199</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>8.5208155214786502E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.117943622171878</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>8.6199156939983299E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>4.4070959091186503E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -14965,7 +15137,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -15161,7 +15333,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS SPAIN'!$B$27:$F$27</c:f>
+              <c:f>'SARIMAX QLOSS SPAIN'!$C$27:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -15185,7 +15357,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS SPAIN'!$B$28:$F$28</c:f>
+              <c:f>'SARIMAX QLOSS SPAIN'!$C$28:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -15242,7 +15414,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS SPAIN'!$B$27:$F$27</c:f>
+              <c:f>'SARIMAX QLOSS SPAIN'!$C$27:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -15266,7 +15438,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS SPAIN'!$B$29:$F$29</c:f>
+              <c:f>'SARIMAX QLOSS SPAIN'!$C$29:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -15323,7 +15495,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS SPAIN'!$B$27:$F$27</c:f>
+              <c:f>'SARIMAX QLOSS SPAIN'!$C$27:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -15347,7 +15519,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS SPAIN'!$B$30:$F$30</c:f>
+              <c:f>'SARIMAX QLOSS SPAIN'!$C$30:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -15656,7 +15828,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS SPAIN'!$B$35:$F$35</c:f>
+              <c:f>'SARIMAX QLOSS SPAIN'!$C$35:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -15680,7 +15852,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS SPAIN'!$B$36:$F$36</c:f>
+              <c:f>'SARIMAX QLOSS SPAIN'!$C$36:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -15737,7 +15909,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS SPAIN'!$B$35:$F$35</c:f>
+              <c:f>'SARIMAX QLOSS SPAIN'!$C$35:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -15761,7 +15933,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS SPAIN'!$B$37:$F$37</c:f>
+              <c:f>'SARIMAX QLOSS SPAIN'!$C$37:$G$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -15818,7 +15990,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS SPAIN'!$B$35:$F$35</c:f>
+              <c:f>'SARIMAX QLOSS SPAIN'!$C$35:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -15842,7 +16014,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS SPAIN'!$B$38:$F$38</c:f>
+              <c:f>'SARIMAX QLOSS SPAIN'!$C$38:$G$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -16176,23 +16348,26 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS GERMANY'!$B$5:$F$5</c:f>
+              <c:f>'SARIMAX QLOSS GERMANY'!$B$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -16200,23 +16375,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS GERMANY'!$B$6:$F$6</c:f>
+              <c:f>'SARIMAX QLOSS GERMANY'!$B$6:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>3.7515524774789803E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>7.5056296773254802E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5.5081197060644601E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>7.1172020398080297E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>9.2933392152190208E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>4.3182387016713602E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -16257,23 +16435,26 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS GERMANY'!$B$5:$F$5</c:f>
+              <c:f>'SARIMAX QLOSS GERMANY'!$B$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -16281,23 +16462,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS GERMANY'!$B$13:$F$13</c:f>
+              <c:f>'SARIMAX QLOSS GERMANY'!$B$13:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.8369648605585098E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1.6760120168328198E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>5.96037926152348E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>5.39368670433759E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1.8884652527049099E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -16615,23 +16799,26 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS GERMANY'!$B$5:$F$5</c:f>
+              <c:f>'SARIMAX QLOSS GERMANY'!$B$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -16639,23 +16826,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS GERMANY'!$B$7:$F$7</c:f>
+              <c:f>'SARIMAX QLOSS GERMANY'!$B$7:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>1.9924093037843701E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6.1050802469253497E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5.6928908452391598E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4.2110844515264E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4.1376715525984703E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2.7082931250333699E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -16696,23 +16886,26 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS GERMANY'!$B$5:$F$5</c:f>
+              <c:f>'SARIMAX QLOSS GERMANY'!$B$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -16720,23 +16913,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS GERMANY'!$B$18:$F$18</c:f>
+              <c:f>'SARIMAX QLOSS GERMANY'!$B$18:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.6599247232079499E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>6.0859043151140196E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>9.1682448983192392E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3.2490263693034601E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>6.0353879816830098E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -17054,23 +17250,26 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS GERMANY'!$B$5:$F$5</c:f>
+              <c:f>'SARIMAX QLOSS GERMANY'!$B$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -17078,23 +17277,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS GERMANY'!$B$8:$F$8</c:f>
+              <c:f>'SARIMAX QLOSS GERMANY'!$B$8:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0.20933429896831501</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.203376069664955</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>8.7165862321853596E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.122468464076519</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.10572969168424599</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5.2445270121097502E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -17135,23 +17337,26 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS GERMANY'!$B$5:$F$5</c:f>
+              <c:f>'SARIMAX QLOSS GERMANY'!$B$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -17159,23 +17364,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS GERMANY'!$B$23:$F$23</c:f>
+              <c:f>'SARIMAX QLOSS GERMANY'!$B$23:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.14988666772842399</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>7.4099101126194E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>7.8327007591724396E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3.0771715566515902E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2.0669201388955099E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -17468,7 +17676,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS GERMANY'!$B$27:$F$27</c:f>
+              <c:f>'SARIMAX QLOSS GERMANY'!$C$27:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -17492,7 +17700,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS GERMANY'!$B$28:$F$28</c:f>
+              <c:f>'SARIMAX QLOSS GERMANY'!$C$28:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -17549,7 +17757,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS GERMANY'!$B$27:$F$27</c:f>
+              <c:f>'SARIMAX QLOSS GERMANY'!$C$27:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -17573,7 +17781,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS GERMANY'!$B$29:$F$29</c:f>
+              <c:f>'SARIMAX QLOSS GERMANY'!$C$29:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -17630,7 +17838,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS GERMANY'!$B$27:$F$27</c:f>
+              <c:f>'SARIMAX QLOSS GERMANY'!$C$27:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -17654,7 +17862,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS GERMANY'!$B$30:$F$30</c:f>
+              <c:f>'SARIMAX QLOSS GERMANY'!$C$30:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -17963,7 +18171,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS GERMANY'!$B$35:$F$35</c:f>
+              <c:f>'SARIMAX QLOSS GERMANY'!$C$35:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -17987,7 +18195,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS GERMANY'!$B$36:$F$36</c:f>
+              <c:f>'SARIMAX QLOSS GERMANY'!$C$36:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -18044,7 +18252,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS GERMANY'!$B$35:$F$35</c:f>
+              <c:f>'SARIMAX QLOSS GERMANY'!$C$35:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -18068,7 +18276,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS GERMANY'!$B$37:$F$37</c:f>
+              <c:f>'SARIMAX QLOSS GERMANY'!$C$37:$G$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -18125,7 +18333,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS GERMANY'!$B$35:$F$35</c:f>
+              <c:f>'SARIMAX QLOSS GERMANY'!$C$35:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -18149,7 +18357,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SARIMAX QLOSS GERMANY'!$B$38:$F$38</c:f>
+              <c:f>'SARIMAX QLOSS GERMANY'!$C$38:$G$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -47784,13 +47992,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>692150</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>311150</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -47822,13 +48030,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -47860,13 +48068,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -47904,7 +48112,7 @@
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
@@ -47936,13 +48144,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -49169,13 +49377,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>692150</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>311150</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -49207,13 +49415,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -49245,13 +49453,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -49289,7 +49497,7 @@
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
@@ -49321,13 +49529,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -49364,13 +49572,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>692150</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>311150</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -49402,13 +49610,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -49440,13 +49648,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -49484,7 +49692,7 @@
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
@@ -49516,13 +49724,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -50175,1405 +50383,1593 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081CEBFA-A2AF-BC45-BA04-CCC43B862847}">
-  <dimension ref="A3:Z39"/>
+  <dimension ref="A3:AB39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="L12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17:V36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="R3" s="51" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="T3" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="P4" s="45" t="s">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="Q4" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="45" t="s">
+      <c r="R4" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="66">
+      <c r="S4" s="42">
+        <v>7</v>
+      </c>
+      <c r="T4" s="42">
         <v>6</v>
       </c>
-      <c r="S4" s="66">
+      <c r="U4" s="42">
         <v>5</v>
       </c>
-      <c r="T4" s="66">
+      <c r="V4" s="42">
         <v>4</v>
       </c>
-      <c r="U4" s="66">
+      <c r="W4" s="42">
         <v>3</v>
       </c>
-      <c r="V4" s="66">
+      <c r="X4" s="42">
         <v>2</v>
       </c>
-      <c r="W4" s="28" t="s">
+      <c r="Y4" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="X4" s="28" t="s">
+      <c r="Z4" s="28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>5</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>2</v>
       </c>
-      <c r="P5" s="64" t="s">
+      <c r="Q5" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="R5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="47">
+      <c r="S5" s="109">
         <f>B6</f>
+        <v>3.7515524774789803E-2</v>
+      </c>
+      <c r="T5" s="38">
+        <f>C6</f>
         <v>7.5056296773254802E-3</v>
       </c>
-      <c r="S5" s="47">
-        <f t="shared" ref="S5:V5" si="0">C6</f>
+      <c r="U5" s="38">
+        <f>D6</f>
         <v>5.5081197060644601E-3</v>
       </c>
-      <c r="T5" s="47">
-        <f t="shared" si="0"/>
+      <c r="V5" s="38">
+        <f>E6</f>
         <v>7.1172020398080297E-3</v>
       </c>
-      <c r="U5" s="47">
-        <f t="shared" si="0"/>
+      <c r="W5" s="38">
+        <f>F6</f>
         <v>9.2933392152190208E-3</v>
       </c>
-      <c r="V5" s="67">
-        <f t="shared" si="0"/>
+      <c r="X5" s="43">
+        <f>G6</f>
         <v>4.3182387016713602E-3</v>
       </c>
-      <c r="W5" s="57">
-        <f>G28</f>
-        <v>-46.908357295072378</v>
-      </c>
-      <c r="X5" s="60">
-        <f>AVERAGE(R7:V7)</f>
-        <v>-2.9259541304781853E-3</v>
-      </c>
-      <c r="Y5">
-        <f>X5/Z5*100</f>
-        <v>-0.85462322107706001</v>
-      </c>
-      <c r="Z5" s="87">
+      <c r="Y5" s="60">
+        <f>H28</f>
+        <v>-33.974404683879591</v>
+      </c>
+      <c r="Z5" s="63">
+        <f>AVERAGE(S7:X7)</f>
+        <v>-5.1904097960018701E-4</v>
+      </c>
+      <c r="AA5" s="120">
+        <f>Z5/AB5*100</f>
+        <v>-0.15160335879373812</v>
+      </c>
+      <c r="AB5" s="50">
         <v>0.34236773098567103</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="2">
+        <v>3.7515524774789803E-2</v>
+      </c>
+      <c r="C6" s="2">
         <v>7.5056296773254802E-3</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>5.5081197060644601E-3</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>7.1172020398080297E-3</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>9.2933392152190208E-3</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>4.3182387016713602E-3</v>
       </c>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="57"/>
+      <c r="R6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="R6" s="48">
+      <c r="S6" s="110">
         <f>B13</f>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="T6" s="39">
+        <f>C13</f>
         <v>1.8369648605585098E-2</v>
       </c>
-      <c r="S6" s="48">
-        <f t="shared" ref="S6:V6" si="1">C13</f>
+      <c r="U6" s="39">
+        <f>D13</f>
         <v>1.6760120168328198E-2</v>
       </c>
-      <c r="T6" s="48">
-        <f t="shared" si="1"/>
+      <c r="V6" s="39">
+        <f>E13</f>
         <v>5.96037926152348E-3</v>
       </c>
-      <c r="U6" s="48">
-        <f t="shared" si="1"/>
+      <c r="W6" s="39">
+        <f>F13</f>
         <v>5.39368670433759E-3</v>
       </c>
-      <c r="V6" s="68">
-        <f t="shared" si="1"/>
+      <c r="X6" s="44">
+        <f>G13</f>
         <v>1.8884652527049099E-3</v>
       </c>
-      <c r="W6" s="58"/>
-      <c r="X6" s="61"/>
-      <c r="Z6" s="4"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="120"/>
+      <c r="AB6" s="4"/>
     </row>
-    <row r="7" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="2">
+        <v>1.9924093037843701E-2</v>
+      </c>
+      <c r="C7" s="2">
         <v>6.1050802469253497E-3</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>5.6928908452391598E-3</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>4.2110844515264E-3</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>4.1376715525984703E-3</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>2.7082931250333699E-2</v>
       </c>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="12" t="s">
+      <c r="Q7" s="58"/>
+      <c r="R7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="R7" s="49">
-        <f>R5-R6</f>
+      <c r="S7" s="40">
+        <f>S5-S6</f>
+        <v>1.1515524774789804E-2</v>
+      </c>
+      <c r="T7" s="40">
+        <f>T5-T6</f>
         <v>-1.0864018928259618E-2</v>
       </c>
-      <c r="S7" s="49">
-        <f t="shared" ref="S7:V7" si="2">S5-S6</f>
+      <c r="U7" s="40">
+        <f t="shared" ref="U7:X7" si="0">U5-U6</f>
         <v>-1.1252000462263739E-2</v>
       </c>
-      <c r="T7" s="49">
-        <f t="shared" si="2"/>
+      <c r="V7" s="40">
+        <f t="shared" si="0"/>
         <v>1.1568227782845497E-3</v>
       </c>
-      <c r="U7" s="49">
-        <f t="shared" si="2"/>
+      <c r="W7" s="40">
+        <f t="shared" si="0"/>
         <v>3.8996525108814309E-3</v>
       </c>
-      <c r="V7" s="49">
-        <f t="shared" si="2"/>
+      <c r="X7" s="40">
+        <f t="shared" si="0"/>
         <v>2.4297734489664505E-3</v>
       </c>
-      <c r="W7" s="59"/>
-      <c r="X7" s="62"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="120"/>
     </row>
-    <row r="8" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="2">
+        <v>0.20933429896831501</v>
+      </c>
+      <c r="C8" s="2">
         <v>0.203376069664955</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>8.7165862321853596E-2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>0.122468464076519</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>0.10572969168424599</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>5.2445270121097502E-2</v>
       </c>
-      <c r="P8" s="64" t="s">
+      <c r="Q8" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="Q8" s="10" t="s">
+      <c r="R8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="R8" s="47">
+      <c r="S8" s="109">
         <f>B7</f>
+        <v>1.9924093037843701E-2</v>
+      </c>
+      <c r="T8" s="38">
+        <f>C7</f>
         <v>6.1050802469253497E-3</v>
       </c>
-      <c r="S8" s="47">
-        <f>C7</f>
+      <c r="U8" s="38">
+        <f>D7</f>
         <v>5.6928908452391598E-3</v>
       </c>
-      <c r="T8" s="47">
-        <f>D7</f>
+      <c r="V8" s="38">
+        <f>E7</f>
         <v>4.2110844515264E-3</v>
       </c>
-      <c r="U8" s="47">
-        <f>E7</f>
+      <c r="W8" s="38">
+        <f>F7</f>
         <v>4.1376715525984703E-3</v>
       </c>
-      <c r="V8" s="67">
-        <f>F7</f>
+      <c r="X8" s="43">
+        <f>G7</f>
         <v>2.7082931250333699E-2</v>
       </c>
-      <c r="W8" s="57">
-        <f>G29</f>
-        <v>-39.464161821306178</v>
-      </c>
-      <c r="X8" s="60">
-        <f>AVERAGE(R10:V10)</f>
-        <v>1.2183695100247711E-3</v>
-      </c>
-      <c r="Y8">
-        <f>X8/Z8*100</f>
-        <v>0.37707469843197033</v>
-      </c>
-      <c r="Z8" s="87">
+      <c r="Y8" s="60">
+        <f>H29</f>
+        <v>-30.440773792854703</v>
+      </c>
+      <c r="Z8" s="63">
+        <f>AVERAGE(S10:X10)</f>
+        <v>1.5026567646612588E-3</v>
+      </c>
+      <c r="AA8" s="120">
+        <f>Z8/AB8*100</f>
+        <v>0.46505911525140214</v>
+      </c>
+      <c r="AB8" s="50">
         <v>0.32311091544758802</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="19" x14ac:dyDescent="0.25">
-      <c r="P9" s="50"/>
-      <c r="Q9" s="11" t="s">
+    <row r="9" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q9" s="57"/>
+      <c r="R9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="48">
+      <c r="S9" s="110">
         <f>B18</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="T9" s="39">
+        <f>C18</f>
         <v>1.6599247232079499E-2</v>
       </c>
-      <c r="S9" s="48">
-        <f>C18</f>
+      <c r="U9" s="39">
+        <f>D18</f>
         <v>6.0859043151140196E-3</v>
       </c>
-      <c r="T9" s="48">
-        <f>D18</f>
+      <c r="V9" s="39">
+        <f>E18</f>
         <v>9.1682448983192392E-3</v>
       </c>
-      <c r="U9" s="48">
-        <f>E18</f>
+      <c r="W9" s="39">
+        <f>F18</f>
         <v>3.2490263693034601E-3</v>
       </c>
-      <c r="V9" s="68">
-        <f>F18</f>
+      <c r="X9" s="44">
+        <f>G18</f>
         <v>6.0353879816830098E-3</v>
       </c>
-      <c r="W9" s="58"/>
-      <c r="X9" s="61"/>
-      <c r="Z9" s="4"/>
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="120"/>
+      <c r="AB9" s="4"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C10" s="32">
         <v>1.8369648605585098E-2</v>
       </c>
-      <c r="C10" s="8">
+      <c r="D10" s="8">
         <v>4.6152621507644598E-2</v>
       </c>
-      <c r="D10" s="8">
+      <c r="E10" s="8">
         <v>9.57320630550384E-3</v>
       </c>
-      <c r="E10" s="8">
+      <c r="F10" s="8">
         <v>5.39368670433759E-3</v>
       </c>
-      <c r="F10" s="33">
+      <c r="G10" s="33">
         <v>1.8884652527049099E-3</v>
       </c>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="12" t="s">
+      <c r="Q10" s="58"/>
+      <c r="R10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="R10" s="49">
-        <f>R8-R9</f>
+      <c r="S10" s="40">
+        <f>S8-S9</f>
+        <v>2.9240930378436995E-3</v>
+      </c>
+      <c r="T10" s="40">
+        <f>T8-T9</f>
         <v>-1.0494166985154148E-2</v>
       </c>
-      <c r="S10" s="49">
-        <f t="shared" ref="S10:V10" si="3">S8-S9</f>
+      <c r="U10" s="40">
+        <f t="shared" ref="U10:X10" si="1">U8-U9</f>
         <v>-3.9301346987485972E-4</v>
       </c>
-      <c r="T10" s="49">
-        <f t="shared" si="3"/>
+      <c r="V10" s="40">
+        <f t="shared" si="1"/>
         <v>-4.9571604467928392E-3</v>
       </c>
-      <c r="U10" s="49">
-        <f t="shared" si="3"/>
+      <c r="W10" s="40">
+        <f t="shared" si="1"/>
         <v>8.8864518329501022E-4</v>
       </c>
-      <c r="V10" s="49">
-        <f t="shared" si="3"/>
+      <c r="X10" s="40">
+        <f t="shared" si="1"/>
         <v>2.104754326865069E-2</v>
       </c>
-      <c r="W10" s="59"/>
-      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="120"/>
     </row>
-    <row r="11" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="55"/>
-      <c r="B11" s="30">
+      <c r="B11" s="74">
+        <v>0.03</v>
+      </c>
+      <c r="C11" s="30">
         <v>2.17496063560247E-2</v>
       </c>
-      <c r="C11" s="6">
+      <c r="D11" s="6">
         <v>1.6760120168328198E-2</v>
       </c>
-      <c r="D11" s="6">
+      <c r="E11" s="6">
         <v>5.96037926152348E-3</v>
       </c>
-      <c r="E11" s="6">
+      <c r="F11" s="6">
         <v>7.9426150768995198E-3</v>
       </c>
-      <c r="F11" s="44">
+      <c r="G11" s="35">
         <v>5.6293969973921698E-3</v>
       </c>
-      <c r="P11" s="50" t="s">
+      <c r="Q11" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="R11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="R11" s="48">
+      <c r="S11" s="110">
         <f>B8</f>
+        <v>0.20933429896831501</v>
+      </c>
+      <c r="T11" s="39">
+        <f>C8</f>
         <v>0.203376069664955</v>
       </c>
-      <c r="S11" s="48">
-        <f>C8</f>
+      <c r="U11" s="39">
+        <f>D8</f>
         <v>8.7165862321853596E-2</v>
       </c>
-      <c r="T11" s="48">
-        <f>D8</f>
+      <c r="V11" s="39">
+        <f>E8</f>
         <v>0.122468464076519</v>
       </c>
-      <c r="U11" s="48">
-        <f>E8</f>
+      <c r="W11" s="39">
+        <f>F8</f>
         <v>0.10572969168424599</v>
       </c>
-      <c r="V11" s="68">
-        <f>F8</f>
+      <c r="X11" s="44">
+        <f>G8</f>
         <v>5.2445270121097502E-2</v>
       </c>
-      <c r="W11" s="58">
-        <f>G30</f>
-        <v>41.763882449910419</v>
-      </c>
-      <c r="X11" s="61">
-        <f>AVERAGE(R13:V13)</f>
-        <v>4.3486332893371539E-2</v>
-      </c>
-      <c r="Y11">
-        <f>X11/Z11*100</f>
-        <v>2.7105868552371204</v>
-      </c>
-      <c r="Z11" s="2">
+      <c r="Y11" s="61">
+        <f>H30</f>
+        <v>33.954059273648596</v>
+      </c>
+      <c r="Z11" s="64">
+        <f>AVERAGE(S13:X13)</f>
+        <v>3.4460993905862124E-2</v>
+      </c>
+      <c r="AA11" s="120">
+        <f>Z11/AB11*100</f>
+        <v>2.1480200992959433</v>
+      </c>
+      <c r="AB11" s="2">
         <v>1.6043143133138</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="56"/>
-      <c r="B12" s="29">
+      <c r="B12" s="75">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="C12" s="29">
         <v>3.3135514706373201E-2</v>
       </c>
-      <c r="C12" s="9">
+      <c r="D12" s="9">
         <v>1.9855856895446701E-2</v>
       </c>
-      <c r="D12" s="9">
+      <c r="E12" s="9">
         <v>7.8186718747019698E-3</v>
       </c>
-      <c r="E12" s="9">
+      <c r="F12" s="9">
         <v>7.62212835252285E-3</v>
       </c>
-      <c r="F12" s="34">
+      <c r="G12" s="34">
         <v>3.14494990743696E-3</v>
       </c>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="57"/>
+      <c r="R12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="R12" s="48">
+      <c r="S12" s="110">
         <f>B23</f>
+        <v>0.22</v>
+      </c>
+      <c r="T12" s="39">
+        <f>C23</f>
         <v>0.14988666772842399</v>
       </c>
-      <c r="S12" s="48">
-        <f>C23</f>
+      <c r="U12" s="39">
+        <f>D23</f>
         <v>7.4099101126194E-2</v>
       </c>
-      <c r="T12" s="48">
-        <f>D23</f>
+      <c r="V12" s="39">
+        <f>E23</f>
         <v>7.8327007591724396E-2</v>
       </c>
-      <c r="U12" s="48">
-        <f>E23</f>
+      <c r="W12" s="39">
+        <f>F23</f>
         <v>3.0771715566515902E-2</v>
       </c>
-      <c r="V12" s="68">
-        <f>F23</f>
+      <c r="X12" s="44">
+        <f>G23</f>
         <v>2.0669201388955099E-2</v>
       </c>
-      <c r="W12" s="58"/>
-      <c r="X12" s="61"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="120"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <f>MIN(B10:B12)</f>
-        <v>1.8369648605585098E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="C13" s="6">
         <f>MIN(C10:C12)</f>
-        <v>1.6760120168328198E-2</v>
+        <v>1.8369648605585098E-2</v>
       </c>
       <c r="D13" s="6">
         <f>MIN(D10:D12)</f>
-        <v>5.96037926152348E-3</v>
+        <v>1.6760120168328198E-2</v>
       </c>
       <c r="E13" s="6">
         <f>MIN(E10:E12)</f>
-        <v>5.39368670433759E-3</v>
+        <v>5.96037926152348E-3</v>
       </c>
       <c r="F13" s="6">
         <f>MIN(F10:F12)</f>
+        <v>5.39368670433759E-3</v>
+      </c>
+      <c r="G13" s="6">
+        <f>MIN(G10:G12)</f>
         <v>1.8884652527049099E-3</v>
       </c>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="12" t="s">
+      <c r="Q13" s="58"/>
+      <c r="R13" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="R13" s="49">
-        <f>R11-R12</f>
+      <c r="S13" s="40">
+        <f>S11-S12</f>
+        <v>-1.0665701031684988E-2</v>
+      </c>
+      <c r="T13" s="40">
+        <f>T11-T12</f>
         <v>5.3489401936531011E-2</v>
       </c>
-      <c r="S13" s="49">
-        <f t="shared" ref="S13:V13" si="4">S11-S12</f>
+      <c r="U13" s="40">
+        <f t="shared" ref="U13:X13" si="2">U11-U12</f>
         <v>1.3066761195659596E-2</v>
       </c>
-      <c r="T13" s="49">
-        <f t="shared" si="4"/>
+      <c r="V13" s="40">
+        <f t="shared" si="2"/>
         <v>4.4141456484794603E-2</v>
       </c>
-      <c r="U13" s="49">
-        <f t="shared" si="4"/>
+      <c r="W13" s="40">
+        <f t="shared" si="2"/>
         <v>7.4957976117730085E-2</v>
       </c>
-      <c r="V13" s="49">
-        <f t="shared" si="4"/>
+      <c r="X13" s="40">
+        <f t="shared" si="2"/>
         <v>3.1776068732142407E-2</v>
       </c>
-      <c r="W13" s="59"/>
-      <c r="X13" s="62"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="65"/>
+      <c r="AA13" s="120"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
-      <c r="B14" s="6">
-        <f>STDEV(B10:B12)</f>
-        <v>7.7362116597175217E-3</v>
-      </c>
+      <c r="B14" s="5"/>
       <c r="C14" s="6">
         <f>STDEV(C10:C12)</f>
-        <v>1.6150451747730821E-2</v>
+        <v>7.7362116597175217E-3</v>
       </c>
       <c r="D14" s="6">
         <f>STDEV(D10:D12)</f>
-        <v>1.8066618275509694E-3</v>
+        <v>1.6150451747730821E-2</v>
       </c>
       <c r="E14" s="6">
         <f>STDEV(E10:E12)</f>
-        <v>1.3883863396235414E-3</v>
+        <v>1.8066618275509694E-3</v>
       </c>
       <c r="F14" s="6">
         <f>STDEV(F10:F12)</f>
+        <v>1.3883863396235414E-3</v>
+      </c>
+      <c r="G14" s="6">
+        <f>STDEV(G10:G12)</f>
         <v>1.9037594976244992E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="73">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C15" s="32">
         <v>1.86271276324987E-2</v>
       </c>
-      <c r="C15" s="8">
+      <c r="D15" s="8">
         <v>6.0859043151140196E-3</v>
       </c>
-      <c r="D15" s="8">
+      <c r="E15" s="8">
         <v>9.1682448983192392E-3</v>
       </c>
-      <c r="E15" s="8">
+      <c r="F15" s="8">
         <v>3.2490263693034601E-3</v>
       </c>
-      <c r="F15" s="33">
+      <c r="G15" s="33">
         <v>6.0353879816830098E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="55"/>
-      <c r="B16" s="30">
+      <c r="B16" s="74">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C16" s="30">
         <v>1.6599247232079499E-2</v>
       </c>
-      <c r="C16" s="6">
+      <c r="D16" s="6">
         <v>1.7917547374963701E-2</v>
       </c>
-      <c r="D16" s="6">
+      <c r="E16" s="6">
         <v>1.36138293892145E-2</v>
       </c>
-      <c r="E16" s="6">
+      <c r="F16" s="6">
         <v>3.8209469057619498E-3</v>
       </c>
-      <c r="F16" s="44">
+      <c r="G16" s="35">
         <v>6.8559786304831496E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="56"/>
-      <c r="B17" s="29">
+      <c r="B17" s="75">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C17" s="29">
         <v>2.8938049450516701E-2</v>
       </c>
-      <c r="C17" s="9">
+      <c r="D17" s="9">
         <v>2.0260903984308201E-2</v>
       </c>
-      <c r="D17" s="9">
+      <c r="E17" s="9">
         <v>1.4791096560657E-2</v>
       </c>
-      <c r="E17" s="9">
+      <c r="F17" s="9">
         <v>1.0877420194447001E-2</v>
       </c>
-      <c r="F17" s="34">
+      <c r="G17" s="34">
         <v>6.5724407322704697E-3</v>
       </c>
-      <c r="R17" s="53" t="s">
+      <c r="S17" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S17" s="53"/>
       <c r="T17" s="53"/>
       <c r="U17" s="53"/>
       <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <f>MIN(B15:B17)</f>
-        <v>1.6599247232079499E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="C18" s="6">
         <f>MIN(C15:C17)</f>
-        <v>6.0859043151140196E-3</v>
+        <v>1.6599247232079499E-2</v>
       </c>
       <c r="D18" s="6">
         <f>MIN(D15:D17)</f>
-        <v>9.1682448983192392E-3</v>
+        <v>6.0859043151140196E-3</v>
       </c>
       <c r="E18" s="6">
         <f>MIN(E15:E17)</f>
-        <v>3.2490263693034601E-3</v>
+        <v>9.1682448983192392E-3</v>
       </c>
       <c r="F18" s="6">
         <f>MIN(F15:F17)</f>
+        <v>3.2490263693034601E-3</v>
+      </c>
+      <c r="G18" s="6">
+        <f>MIN(G15:G17)</f>
         <v>6.0353879816830098E-3</v>
       </c>
-      <c r="P18" s="45" t="s">
+      <c r="Q18" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="Q18" s="76" t="s">
+      <c r="R18" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="R18" s="83">
+      <c r="S18" s="16">
+        <v>7</v>
+      </c>
+      <c r="T18" s="5">
         <v>6</v>
       </c>
-      <c r="S18" s="83">
+      <c r="U18" s="5">
         <v>5</v>
       </c>
-      <c r="T18" s="83">
+      <c r="V18" s="5">
         <v>4</v>
       </c>
-      <c r="U18" s="83">
+      <c r="W18" s="5">
         <v>3</v>
       </c>
-      <c r="V18" s="83">
+      <c r="X18" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
-      <c r="B19" s="6">
-        <f>STDEV(B15:B17)</f>
-        <v>6.6165631542036973E-3</v>
-      </c>
+      <c r="B19" s="5"/>
       <c r="C19" s="6">
         <f>STDEV(C15:C17)</f>
-        <v>7.5983519410012306E-3</v>
+        <v>6.6165631542036973E-3</v>
       </c>
       <c r="D19" s="6">
         <f>STDEV(D15:D17)</f>
-        <v>2.9655140160209218E-3</v>
+        <v>7.5983519410012306E-3</v>
       </c>
       <c r="E19" s="6">
         <f>STDEV(E15:E17)</f>
-        <v>4.2487900380664585E-3</v>
+        <v>2.9655140160209218E-3</v>
       </c>
       <c r="F19" s="6">
         <f>STDEV(F15:F17)</f>
+        <v>4.2487900380664585E-3</v>
+      </c>
+      <c r="G19" s="6">
+        <f>STDEV(G15:G17)</f>
         <v>4.1677100217718581E-4</v>
       </c>
-      <c r="P19" s="72" t="s">
+      <c r="Q19" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="Q19" s="10" t="s">
+      <c r="R19" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="R19" s="80">
+      <c r="S19" s="48">
         <v>0</v>
       </c>
-      <c r="S19" s="80">
+      <c r="T19" s="46">
         <v>0</v>
       </c>
-      <c r="T19" s="80">
+      <c r="U19" s="46">
         <v>0</v>
       </c>
-      <c r="U19" s="80">
+      <c r="V19" s="46">
         <v>0</v>
       </c>
-      <c r="V19" s="80">
+      <c r="W19" s="46">
         <v>0</v>
       </c>
+      <c r="X19" s="46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="92">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="C20" s="111">
         <v>0.178634613752365</v>
       </c>
-      <c r="C20" s="8">
+      <c r="D20" s="112">
         <v>7.4099101126194E-2</v>
       </c>
-      <c r="D20" s="8">
+      <c r="E20" s="112">
         <v>9.0022929012775393E-2</v>
       </c>
-      <c r="E20" s="8">
+      <c r="F20" s="112">
         <v>3.60586643218994E-2</v>
       </c>
-      <c r="F20" s="33">
+      <c r="G20" s="113">
         <v>2.0669201388955099E-2</v>
       </c>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="11" t="s">
+      <c r="Q20" s="57"/>
+      <c r="R20" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="R20" s="81">
+      <c r="S20" s="85">
         <v>1</v>
       </c>
-      <c r="S20" s="81">
+      <c r="T20" s="47">
         <v>1</v>
       </c>
-      <c r="T20" s="81">
+      <c r="U20" s="47">
         <v>1</v>
       </c>
-      <c r="U20" s="81">
+      <c r="V20" s="47">
         <v>1</v>
       </c>
-      <c r="V20" s="81">
+      <c r="W20" s="47">
         <v>1</v>
       </c>
+      <c r="X20" s="47">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="55"/>
-      <c r="B21" s="30">
+      <c r="B21" s="119">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="C21" s="114">
         <v>0.14988666772842399</v>
       </c>
-      <c r="C21" s="6">
+      <c r="D21" s="103">
         <v>0.10591903328895499</v>
       </c>
-      <c r="D21" s="6">
+      <c r="E21" s="103">
         <v>7.8327007591724396E-2</v>
       </c>
-      <c r="E21" s="6">
+      <c r="F21" s="103">
         <v>5.40892407298088E-2</v>
       </c>
-      <c r="F21" s="44">
+      <c r="G21" s="115">
         <v>4.3158356100320802E-2</v>
       </c>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="11" t="s">
+      <c r="Q21" s="57"/>
+      <c r="R21" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="R21" s="81">
+      <c r="S21" s="86">
         <v>0</v>
       </c>
-      <c r="S21" s="81">
+      <c r="T21" s="47">
         <v>0</v>
       </c>
-      <c r="T21" s="81">
+      <c r="U21" s="47">
         <v>0</v>
       </c>
-      <c r="U21" s="81">
+      <c r="V21" s="47">
         <v>0</v>
       </c>
-      <c r="V21" s="81">
+      <c r="W21" s="47">
         <v>0</v>
       </c>
+      <c r="X21" s="47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="56"/>
-      <c r="B22" s="29">
+      <c r="B22" s="91">
+        <v>0.22</v>
+      </c>
+      <c r="C22" s="116">
         <v>0.20671181380748699</v>
       </c>
-      <c r="C22" s="9">
+      <c r="D22" s="117">
         <v>9.65774431824684E-2</v>
       </c>
-      <c r="D22" s="9">
+      <c r="E22" s="117">
         <v>9.2562578618526403E-2</v>
       </c>
-      <c r="E22" s="9">
+      <c r="F22" s="117">
         <v>3.0771715566515902E-2</v>
       </c>
-      <c r="F22" s="34">
+      <c r="G22" s="118">
         <v>3.9595149457454598E-2</v>
       </c>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="78" t="s">
+      <c r="Q22" s="57"/>
+      <c r="R22" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="R22" s="82">
+      <c r="S22" s="86">
         <v>1</v>
       </c>
-      <c r="S22" s="75">
+      <c r="T22" s="47">
         <v>1</v>
       </c>
-      <c r="T22" s="75">
+      <c r="U22" s="16">
         <v>1</v>
       </c>
-      <c r="U22" s="75">
+      <c r="V22" s="16">
         <v>1</v>
       </c>
-      <c r="V22" s="75">
+      <c r="W22" s="16">
         <v>1</v>
       </c>
+      <c r="X22" s="16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="108">
         <f>MIN(B20:B22)</f>
+        <v>0.22</v>
+      </c>
+      <c r="C23" s="103">
+        <f>MIN(C20:C22)</f>
         <v>0.14988666772842399</v>
       </c>
-      <c r="C23" s="6">
-        <f>MIN(C20:C22)</f>
+      <c r="D23" s="103">
+        <f>MIN(D20:D22)</f>
         <v>7.4099101126194E-2</v>
       </c>
-      <c r="D23" s="6">
-        <f>MIN(D20:D22)</f>
+      <c r="E23" s="103">
+        <f>MIN(E20:E22)</f>
         <v>7.8327007591724396E-2</v>
       </c>
-      <c r="E23" s="6">
-        <f>MIN(E20:E22)</f>
+      <c r="F23" s="103">
+        <f>MIN(F20:F22)</f>
         <v>3.0771715566515902E-2</v>
       </c>
-      <c r="F23" s="6">
-        <f>MIN(F20:F22)</f>
+      <c r="G23" s="103">
+        <f>MIN(G20:G22)</f>
         <v>2.0669201388955099E-2</v>
       </c>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="78" t="s">
+      <c r="Q23" s="57"/>
+      <c r="R23" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="R23" s="82">
+      <c r="S23" s="86">
         <v>1</v>
       </c>
-      <c r="S23" s="75">
+      <c r="T23" s="47">
         <v>1</v>
       </c>
-      <c r="T23" s="75">
+      <c r="U23" s="16">
         <v>1</v>
       </c>
-      <c r="U23" s="75">
+      <c r="V23" s="16">
         <v>1</v>
       </c>
-      <c r="V23" s="75">
+      <c r="W23" s="16">
         <v>1</v>
       </c>
+      <c r="X23" s="16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
-      <c r="B24" s="6">
-        <f>STDEV(B20:B22)</f>
+      <c r="B24" s="108"/>
+      <c r="C24" s="103">
+        <f>STDEV(C20:C22)</f>
         <v>2.8413232804562434E-2</v>
       </c>
-      <c r="C24" s="6">
-        <f>STDEV(C20:C22)</f>
+      <c r="D24" s="103">
+        <f>STDEV(D20:D22)</f>
         <v>1.6355678168754335E-2</v>
       </c>
-      <c r="D24" s="6">
-        <f>STDEV(D20:D22)</f>
+      <c r="E24" s="103">
+        <f>STDEV(E20:E22)</f>
         <v>7.5927144955599338E-3</v>
       </c>
-      <c r="E24" s="6">
-        <f>STDEV(E20:E22)</f>
+      <c r="F24" s="103">
+        <f>STDEV(F20:F22)</f>
         <v>1.2225386786548645E-2</v>
       </c>
-      <c r="F24" s="6">
-        <f>STDEV(F20:F22)</f>
+      <c r="G24" s="103">
+        <f>STDEV(G20:G22)</f>
         <v>1.2087528224738138E-2</v>
       </c>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="78" t="s">
+      <c r="Q24" s="58"/>
+      <c r="R24" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="R24" s="66">
+      <c r="S24" s="86">
         <v>0</v>
       </c>
-      <c r="S24" s="66">
+      <c r="T24" s="42">
         <v>0</v>
       </c>
-      <c r="T24" s="66">
+      <c r="U24" s="42">
         <v>0</v>
       </c>
-      <c r="U24" s="66">
+      <c r="V24" s="42">
         <v>0</v>
       </c>
-      <c r="V24" s="66">
+      <c r="W24" s="42">
         <v>0</v>
       </c>
+      <c r="X24" s="42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A25" s="51" t="s">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A25" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="P25" s="72" t="s">
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="Q25" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="Q25" s="10" t="s">
+      <c r="R25" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="R25" s="84">
+      <c r="S25" s="48">
         <v>0</v>
       </c>
-      <c r="S25" s="84">
+      <c r="T25" s="48">
         <v>0</v>
       </c>
-      <c r="T25" s="84">
+      <c r="U25" s="48">
         <v>0</v>
       </c>
-      <c r="U25" s="84">
+      <c r="V25" s="48">
         <v>0</v>
       </c>
-      <c r="V25" s="83">
+      <c r="W25" s="48">
+        <v>0</v>
+      </c>
+      <c r="X25" s="5">
         <v>3</v>
       </c>
-      <c r="W25" s="7"/>
+      <c r="Y25" s="7"/>
     </row>
-    <row r="26" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="53"/>
       <c r="B26" s="53"/>
       <c r="C26" s="53"/>
       <c r="D26" s="53"/>
       <c r="E26" s="53"/>
       <c r="F26" s="53"/>
-      <c r="G26" t="s">
+      <c r="G26" s="53"/>
+      <c r="H26" t="s">
         <v>21</v>
       </c>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="11" t="s">
+      <c r="Q26" s="57"/>
+      <c r="R26" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="R26" s="82">
+      <c r="S26" s="86">
         <v>1</v>
       </c>
-      <c r="S26" s="83">
+      <c r="T26" s="47">
         <v>1</v>
       </c>
-      <c r="T26" s="83">
+      <c r="U26" s="5">
         <v>1</v>
       </c>
-      <c r="U26" s="83">
+      <c r="V26" s="5">
         <v>1</v>
       </c>
-      <c r="V26" s="86">
+      <c r="W26" s="5">
+        <v>1</v>
+      </c>
+      <c r="X26" s="16">
         <v>2</v>
       </c>
-      <c r="W26" s="7"/>
+      <c r="Y26" s="7"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="5">
+        <v>7</v>
+      </c>
+      <c r="C27" s="5">
         <v>6</v>
       </c>
-      <c r="C27" s="5">
+      <c r="D27" s="5">
         <v>5</v>
       </c>
-      <c r="D27" s="5">
+      <c r="E27" s="5">
         <v>4</v>
       </c>
-      <c r="E27" s="5">
+      <c r="F27" s="5">
         <v>3</v>
       </c>
-      <c r="F27" s="5">
+      <c r="G27" s="5">
         <v>2</v>
       </c>
-      <c r="P27" s="73"/>
-      <c r="Q27" s="11" t="s">
+      <c r="Q27" s="57"/>
+      <c r="R27" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="R27" s="82">
+      <c r="S27" s="86">
+        <v>3</v>
+      </c>
+      <c r="T27" s="47">
         <v>0</v>
       </c>
-      <c r="S27" s="83">
+      <c r="U27" s="5">
         <v>3</v>
       </c>
-      <c r="T27" s="83">
+      <c r="V27" s="5">
         <v>0</v>
       </c>
-      <c r="U27" s="83">
+      <c r="W27" s="5">
         <v>1</v>
       </c>
-      <c r="V27" s="83">
+      <c r="X27" s="5">
         <v>1</v>
       </c>
-      <c r="W27" s="7"/>
+      <c r="Y27" s="7"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="13">
         <f>(1-B13/B6)*100</f>
+        <v>30.695358372084304</v>
+      </c>
+      <c r="C28" s="13">
+        <f>(1-C13/C6)*100</f>
         <v>-144.74493673835039</v>
-      </c>
-      <c r="C28" s="22">
-        <f>(1-C13/C6)*100</f>
-        <v>-204.28024557772852</v>
       </c>
       <c r="D28" s="22">
         <f>(1-D13/D6)*100</f>
-        <v>16.25389825684578</v>
+        <v>-204.28024557772852</v>
       </c>
       <c r="E28" s="22">
         <f>(1-E13/E6)*100</f>
+        <v>16.25389825684578</v>
+      </c>
+      <c r="F28" s="22">
+        <f>(1-F13/F6)*100</f>
         <v>41.961801033747435</v>
       </c>
-      <c r="F28" s="23">
-        <f>(1-F13/F6)*100</f>
+      <c r="G28" s="23">
+        <f>(1-G13/G6)*100</f>
         <v>56.26769655012388</v>
       </c>
-      <c r="G28" s="24">
-        <f>AVERAGE(B28:F28)</f>
-        <v>-46.908357295072378</v>
-      </c>
       <c r="H28" s="24">
-        <f>AVERAGE(D28:F28)</f>
+        <f>AVERAGE(B28:G28)</f>
+        <v>-33.974404683879591</v>
+      </c>
+      <c r="I28" s="24">
+        <f>AVERAGE(E28:G28)</f>
         <v>38.161131946905698</v>
       </c>
-      <c r="P28" s="73"/>
-      <c r="Q28" s="78" t="s">
+      <c r="Q28" s="57"/>
+      <c r="R28" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="R28" s="82">
+      <c r="S28" s="86">
         <v>0</v>
       </c>
-      <c r="S28" s="83">
+      <c r="T28" s="47">
         <v>0</v>
       </c>
-      <c r="T28" s="83">
+      <c r="U28" s="5">
         <v>0</v>
       </c>
-      <c r="U28" s="83">
+      <c r="V28" s="5">
         <v>0</v>
       </c>
-      <c r="V28" s="83">
+      <c r="W28" s="5">
         <v>0</v>
       </c>
+      <c r="X28" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="14">
         <f>(1-B18/B7)*100</f>
+        <v>14.676166349402687</v>
+      </c>
+      <c r="C29" s="14">
+        <f>(1-C18/C7)*100</f>
         <v>-171.89236767918388</v>
-      </c>
-      <c r="C29" s="24">
-        <f>(1-C18/C7)*100</f>
-        <v>-6.9035834439637789</v>
       </c>
       <c r="D29" s="24">
         <f>(1-D18/D7)*100</f>
-        <v>-117.71695637678334</v>
+        <v>-6.9035834439637789</v>
       </c>
       <c r="E29" s="24">
         <f>(1-E18/E7)*100</f>
+        <v>-117.71695637678334</v>
+      </c>
+      <c r="F29" s="24">
+        <f>(1-F18/F7)*100</f>
         <v>21.476938708122894</v>
       </c>
-      <c r="F29" s="25">
-        <f>(1-F18/F7)*100</f>
+      <c r="G29" s="25">
+        <f>(1-G18/G7)*100</f>
         <v>77.715159685277243</v>
       </c>
-      <c r="G29" s="24">
-        <f>AVERAGE(B29:F29)</f>
-        <v>-39.464161821306178</v>
-      </c>
       <c r="H29" s="24">
-        <f>AVERAGE(D29:F29)</f>
+        <f>AVERAGE(B29:G29)</f>
+        <v>-30.440773792854703</v>
+      </c>
+      <c r="I29" s="24">
+        <f>AVERAGE(E29:G29)</f>
         <v>-6.1749526611277332</v>
       </c>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="78" t="s">
+      <c r="Q29" s="57"/>
+      <c r="R29" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="R29" s="82">
+      <c r="S29" s="86">
         <v>1</v>
       </c>
-      <c r="S29" s="83">
+      <c r="T29" s="47">
         <v>1</v>
       </c>
-      <c r="T29" s="83">
+      <c r="U29" s="5">
         <v>1</v>
       </c>
-      <c r="U29" s="83">
+      <c r="V29" s="5">
         <v>1</v>
       </c>
-      <c r="V29" s="83">
+      <c r="W29" s="5">
         <v>1</v>
       </c>
+      <c r="X29" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="15">
         <f>(1-B23/B8)*100</f>
+        <v>-5.0950566076605419</v>
+      </c>
+      <c r="C30" s="15">
+        <f>(1-C23/C8)*100</f>
         <v>26.300735393623409</v>
-      </c>
-      <c r="C30" s="26">
-        <f>(1-C23/C8)*100</f>
-        <v>14.990686545853848</v>
       </c>
       <c r="D30" s="26">
         <f>(1-D23/D8)*100</f>
-        <v>36.043120829224065</v>
+        <v>14.990686545853848</v>
       </c>
       <c r="E30" s="26">
         <f>(1-E23/E8)*100</f>
+        <v>36.043120829224065</v>
+      </c>
+      <c r="F30" s="26">
+        <f>(1-F23/F8)*100</f>
         <v>70.895861818633321</v>
       </c>
-      <c r="F30" s="27">
-        <f>(1-F23/F8)*100</f>
+      <c r="G30" s="27">
+        <f>(1-G23/G8)*100</f>
         <v>60.58900766221744</v>
       </c>
-      <c r="G30" s="24">
-        <f>AVERAGE(B30:F30)</f>
-        <v>41.763882449910419</v>
-      </c>
       <c r="H30" s="24">
-        <f>AVERAGE(D30:F30)</f>
+        <f>AVERAGE(B30:G30)</f>
+        <v>33.954059273648596</v>
+      </c>
+      <c r="I30" s="24">
+        <f>AVERAGE(E30:G30)</f>
         <v>55.842663436691602</v>
       </c>
-      <c r="P30" s="73"/>
-      <c r="Q30" s="78" t="s">
+      <c r="Q30" s="57"/>
+      <c r="R30" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="R30" s="28">
-        <v>0</v>
-      </c>
-      <c r="S30" s="28">
+      <c r="S30" s="86">
         <v>0</v>
       </c>
       <c r="T30" s="28">
         <v>0</v>
       </c>
       <c r="U30" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30" s="28">
         <v>0</v>
       </c>
+      <c r="W30" s="28">
+        <v>1</v>
+      </c>
+      <c r="X30" s="28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="P31" s="72" t="s">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q31" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="Q31" s="10" t="s">
+      <c r="R31" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="R31" s="80">
+      <c r="S31" s="48">
+        <v>1</v>
+      </c>
+      <c r="T31" s="46">
         <v>0</v>
       </c>
-      <c r="S31" s="80">
+      <c r="U31" s="46">
         <v>0</v>
       </c>
-      <c r="T31" s="80">
+      <c r="V31" s="46">
         <v>0</v>
       </c>
-      <c r="U31" s="80">
+      <c r="W31" s="46">
         <v>0</v>
       </c>
-      <c r="V31" s="80">
+      <c r="X31" s="46">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="P32" s="73"/>
-      <c r="Q32" s="11" t="s">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q32" s="57"/>
+      <c r="R32" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="R32" s="81">
+      <c r="S32" s="86">
+        <v>2</v>
+      </c>
+      <c r="T32" s="47">
         <v>1</v>
       </c>
-      <c r="S32" s="81">
+      <c r="U32" s="47">
         <v>1</v>
       </c>
-      <c r="T32" s="81">
+      <c r="V32" s="47">
         <v>1</v>
       </c>
-      <c r="U32" s="81">
+      <c r="W32" s="47">
         <v>1</v>
       </c>
-      <c r="V32" s="81">
+      <c r="X32" s="47">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="51" t="s">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A33" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="11" t="s">
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="R33" s="81">
+      <c r="S33" s="86">
         <v>1</v>
       </c>
-      <c r="S33" s="81">
+      <c r="T33" s="47">
         <v>1</v>
       </c>
-      <c r="T33" s="81">
+      <c r="U33" s="47">
         <v>1</v>
       </c>
-      <c r="U33" s="81">
+      <c r="V33" s="47">
         <v>1</v>
       </c>
-      <c r="V33" s="81">
+      <c r="W33" s="47">
         <v>1</v>
       </c>
+      <c r="X33" s="47">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="53"/>
       <c r="B34" s="53"/>
       <c r="C34" s="53"/>
       <c r="D34" s="53"/>
       <c r="E34" s="53"/>
       <c r="F34" s="53"/>
-      <c r="P34" s="73"/>
-      <c r="Q34" s="78" t="s">
+      <c r="G34" s="53"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="R34" s="82">
+      <c r="S34" s="86">
+        <v>1</v>
+      </c>
+      <c r="T34" s="47">
         <v>0</v>
       </c>
-      <c r="S34" s="82">
+      <c r="U34" s="47">
         <v>1</v>
       </c>
-      <c r="T34" s="82">
+      <c r="V34" s="47">
         <v>1</v>
       </c>
-      <c r="U34" s="75">
+      <c r="W34" s="16">
         <v>1</v>
       </c>
-      <c r="V34" s="75">
+      <c r="X34" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
-      <c r="B35" s="5">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5">
         <v>6</v>
       </c>
-      <c r="C35" s="5">
+      <c r="D35" s="5">
         <v>5</v>
       </c>
-      <c r="D35" s="5">
+      <c r="E35" s="5">
         <v>4</v>
       </c>
-      <c r="E35" s="5">
+      <c r="F35" s="5">
         <v>3</v>
       </c>
-      <c r="F35" s="5">
+      <c r="G35" s="5">
         <v>2</v>
       </c>
-      <c r="P35" s="73"/>
-      <c r="Q35" s="78" t="s">
+      <c r="Q35" s="57"/>
+      <c r="R35" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="R35" s="82">
+      <c r="S35" s="86">
         <v>1</v>
       </c>
-      <c r="S35" s="82">
+      <c r="T35" s="47">
         <v>1</v>
       </c>
-      <c r="T35" s="82">
+      <c r="U35" s="47">
         <v>1</v>
       </c>
-      <c r="U35" s="75">
+      <c r="V35" s="47">
         <v>1</v>
       </c>
-      <c r="V35" s="75">
+      <c r="W35" s="16">
         <v>1</v>
       </c>
+      <c r="X35" s="16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="13">
-        <f>B6-B13</f>
+      <c r="B36" s="76"/>
+      <c r="C36" s="13">
+        <f>C6-C13</f>
         <v>-1.0864018928259618E-2</v>
       </c>
-      <c r="C36" s="13">
-        <f t="shared" ref="C36:F36" si="5">C6-C13</f>
+      <c r="D36" s="13">
+        <f t="shared" ref="D36:G36" si="3">D6-D13</f>
         <v>-1.1252000462263739E-2</v>
       </c>
-      <c r="D36" s="13">
-        <f t="shared" si="5"/>
+      <c r="E36" s="13">
+        <f t="shared" si="3"/>
         <v>1.1568227782845497E-3</v>
       </c>
-      <c r="E36" s="13">
-        <f t="shared" si="5"/>
+      <c r="F36" s="13">
+        <f t="shared" si="3"/>
         <v>3.8996525108814309E-3</v>
       </c>
-      <c r="F36" s="13">
-        <f t="shared" si="5"/>
+      <c r="G36" s="13">
+        <f t="shared" si="3"/>
         <v>2.4297734489664505E-3</v>
       </c>
-      <c r="P36" s="74"/>
-      <c r="Q36" s="79" t="s">
+      <c r="Q36" s="58"/>
+      <c r="R36" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="R36" s="85">
+      <c r="S36" s="28">
+        <v>2</v>
+      </c>
+      <c r="T36" s="49">
         <v>1</v>
       </c>
-      <c r="S36" s="66">
+      <c r="U36" s="42">
         <v>0</v>
       </c>
-      <c r="T36" s="66">
+      <c r="V36" s="42">
         <v>0</v>
       </c>
-      <c r="U36" s="66">
+      <c r="W36" s="42">
         <v>0</v>
       </c>
-      <c r="V36" s="66">
+      <c r="X36" s="42">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="14">
-        <f>B7-B18</f>
+      <c r="B37" s="77"/>
+      <c r="C37" s="14">
+        <f>C7-C18</f>
         <v>-1.0494166985154148E-2</v>
       </c>
-      <c r="C37" s="14">
-        <f t="shared" ref="C37:F37" si="6">C7-C18</f>
+      <c r="D37" s="14">
+        <f t="shared" ref="D37:G37" si="4">D7-D18</f>
         <v>-3.9301346987485972E-4</v>
       </c>
-      <c r="D37" s="14">
-        <f t="shared" si="6"/>
+      <c r="E37" s="14">
+        <f t="shared" si="4"/>
         <v>-4.9571604467928392E-3</v>
       </c>
-      <c r="E37" s="14">
-        <f t="shared" si="6"/>
+      <c r="F37" s="14">
+        <f t="shared" si="4"/>
         <v>8.8864518329501022E-4</v>
       </c>
-      <c r="F37" s="14">
-        <f t="shared" si="6"/>
+      <c r="G37" s="14">
+        <f t="shared" si="4"/>
         <v>2.104754326865069E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="15">
-        <f>B8-B23</f>
+      <c r="B38" s="78"/>
+      <c r="C38" s="15">
+        <f>C8-C23</f>
         <v>5.3489401936531011E-2</v>
       </c>
-      <c r="C38" s="15">
-        <f t="shared" ref="C38:F38" si="7">C8-C23</f>
+      <c r="D38" s="15">
+        <f t="shared" ref="D38:G38" si="5">D8-D23</f>
         <v>1.3066761195659596E-2</v>
       </c>
-      <c r="D38" s="15">
-        <f t="shared" si="7"/>
+      <c r="E38" s="15">
+        <f t="shared" si="5"/>
         <v>4.4141456484794603E-2</v>
       </c>
-      <c r="E38" s="15">
-        <f t="shared" si="7"/>
+      <c r="F38" s="15">
+        <f t="shared" si="5"/>
         <v>7.4957976117730085E-2</v>
       </c>
-      <c r="F38" s="15">
-        <f t="shared" si="7"/>
+      <c r="G38" s="15">
+        <f t="shared" si="5"/>
         <v>3.1776068732142407E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="P31:P36"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="R17:V17"/>
-    <mergeCell ref="P19:P24"/>
-    <mergeCell ref="X5:X7"/>
-    <mergeCell ref="X8:X10"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="A33:F34"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="P8:P10"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="W11:W13"/>
-    <mergeCell ref="W8:W10"/>
-    <mergeCell ref="W5:W7"/>
+  <mergeCells count="23">
+    <mergeCell ref="AA5:AA7"/>
+    <mergeCell ref="AA8:AA10"/>
+    <mergeCell ref="AA11:AA13"/>
+    <mergeCell ref="Z5:Z7"/>
+    <mergeCell ref="Z8:Z10"/>
+    <mergeCell ref="Z11:Z13"/>
+    <mergeCell ref="A33:G34"/>
+    <mergeCell ref="Q5:Q7"/>
+    <mergeCell ref="Q8:Q10"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="Y8:Y10"/>
+    <mergeCell ref="Y5:Y7"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A25:F26"/>
-    <mergeCell ref="P25:P30"/>
+    <mergeCell ref="A25:G26"/>
+    <mergeCell ref="Q25:Q30"/>
+    <mergeCell ref="S17:X17"/>
+    <mergeCell ref="Q31:Q36"/>
+    <mergeCell ref="A3:G4"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="Q19:Q24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -54060,37 +54456,37 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="P3" s="52" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="P3" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="52" t="s">
+      <c r="Q3" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="51" t="s">
+      <c r="R3" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
       <c r="R4">
         <v>6</v>
       </c>
@@ -54123,7 +54519,7 @@
       <c r="F5" s="3">
         <v>2</v>
       </c>
-      <c r="P5" s="50" t="s">
+      <c r="P5" s="57" t="s">
         <v>6</v>
       </c>
       <c r="Q5" t="s">
@@ -54169,7 +54565,7 @@
       <c r="F6" s="6">
         <v>5.16424067318439E-2</v>
       </c>
-      <c r="P6" s="50"/>
+      <c r="P6" s="57"/>
       <c r="Q6" t="s">
         <v>28</v>
       </c>
@@ -54213,7 +54609,7 @@
       <c r="F7" s="6">
         <v>1.9371462985873202E-2</v>
       </c>
-      <c r="P7" s="50" t="s">
+      <c r="P7" s="57" t="s">
         <v>7</v>
       </c>
       <c r="Q7" t="s">
@@ -54259,7 +54655,7 @@
       <c r="F8" s="6">
         <v>0.48921799659728998</v>
       </c>
-      <c r="P8" s="50"/>
+      <c r="P8" s="57"/>
       <c r="Q8" t="s">
         <v>28</v>
       </c>
@@ -54285,7 +54681,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="P9" s="50" t="s">
+      <c r="P9" s="57" t="s">
         <v>1</v>
       </c>
       <c r="Q9" t="s">
@@ -54331,7 +54727,7 @@
       <c r="F10" s="17">
         <v>5.2369437180459499E-3</v>
       </c>
-      <c r="P10" s="50"/>
+      <c r="P10" s="57"/>
       <c r="Q10" t="s">
         <v>28</v>
       </c>
@@ -54649,14 +55045,14 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
     </row>
     <row r="26" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="53"/>
@@ -54787,14 +55183,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="53"/>
@@ -54902,18 +55298,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="P3:P4"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="A33:F34"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A25:F26"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -54939,48 +55335,48 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="R3" s="51" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="R3" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="P4" s="45" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="P4" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="45" t="s">
+      <c r="Q4" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="46">
+      <c r="R4" s="37">
         <v>6</v>
       </c>
-      <c r="S4" s="46">
+      <c r="S4" s="37">
         <v>5</v>
       </c>
-      <c r="T4" s="46">
+      <c r="T4" s="37">
         <v>4</v>
       </c>
-      <c r="U4" s="46">
+      <c r="U4" s="37">
         <v>3</v>
       </c>
-      <c r="V4" s="46">
+      <c r="V4" s="37">
         <v>2</v>
       </c>
       <c r="W4" s="28" t="s">
@@ -55006,7 +55402,7 @@
       <c r="F5" s="3">
         <v>2</v>
       </c>
-      <c r="P5" s="64" t="s">
+      <c r="P5" s="59" t="s">
         <v>6</v>
       </c>
       <c r="Q5" s="10" t="s">
@@ -55032,11 +55428,11 @@
         <f t="shared" si="0"/>
         <v>5.16424067318439E-2</v>
       </c>
-      <c r="W5" s="57">
+      <c r="W5" s="60">
         <f>G28</f>
         <v>51.689270070549867</v>
       </c>
-      <c r="X5" s="60">
+      <c r="X5" s="63">
         <f>AVERAGE(R7:V7)</f>
         <v>2.324707722291346E-2</v>
       </c>
@@ -55060,7 +55456,7 @@
       <c r="F6" s="6">
         <v>5.16424067318439E-2</v>
       </c>
-      <c r="P6" s="50"/>
+      <c r="P6" s="57"/>
       <c r="Q6" s="11" t="s">
         <v>28</v>
       </c>
@@ -55084,8 +55480,8 @@
         <f t="shared" si="1"/>
         <v>4.1782734915614102E-3</v>
       </c>
-      <c r="W6" s="58"/>
-      <c r="X6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="64"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -55106,7 +55502,7 @@
       <c r="F7" s="6">
         <v>1.9371462985873202E-2</v>
       </c>
-      <c r="P7" s="63"/>
+      <c r="P7" s="58"/>
       <c r="Q7" s="12" t="s">
         <v>48</v>
       </c>
@@ -55130,8 +55526,8 @@
         <f t="shared" si="2"/>
         <v>4.7464133240282487E-2</v>
       </c>
-      <c r="W7" s="59"/>
-      <c r="X7" s="62"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="65"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -55152,7 +55548,7 @@
       <c r="F8" s="6">
         <v>0.48921799659728998</v>
       </c>
-      <c r="P8" s="64" t="s">
+      <c r="P8" s="59" t="s">
         <v>7</v>
       </c>
       <c r="Q8" s="10" t="s">
@@ -55178,17 +55574,17 @@
         <f>F7</f>
         <v>1.9371462985873202E-2</v>
       </c>
-      <c r="W8" s="57">
+      <c r="W8" s="60">
         <f>G29</f>
         <v>47.95851408236031</v>
       </c>
-      <c r="X8" s="60">
+      <c r="X8" s="63">
         <f>AVERAGE(R10:V10)</f>
         <v>3.6628449521958782E-2</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="P9" s="50"/>
+      <c r="P9" s="57"/>
       <c r="Q9" s="11" t="s">
         <v>28</v>
       </c>
@@ -55212,8 +55608,8 @@
         <f>F18</f>
         <v>1.4022849500179201E-2</v>
       </c>
-      <c r="W9" s="58"/>
-      <c r="X9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="64"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="54" t="s">
@@ -55239,7 +55635,7 @@
         <f>'WHEAT RESULT'!B9</f>
         <v>1.6838256269693298E-2</v>
       </c>
-      <c r="P10" s="63"/>
+      <c r="P10" s="58"/>
       <c r="Q10" s="12" t="s">
         <v>48</v>
       </c>
@@ -55263,8 +55659,8 @@
         <f t="shared" si="3"/>
         <v>5.348613485694001E-3</v>
       </c>
-      <c r="W10" s="59"/>
-      <c r="X10" s="62"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="65"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="55"/>
@@ -55288,7 +55684,7 @@
         <f>'WHEAT RESULT'!B17</f>
         <v>4.1782734915614102E-3</v>
       </c>
-      <c r="P11" s="50" t="s">
+      <c r="P11" s="57" t="s">
         <v>1</v>
       </c>
       <c r="Q11" s="11" t="s">
@@ -55314,11 +55710,11 @@
         <f>F8</f>
         <v>0.48921799659728998</v>
       </c>
-      <c r="W11" s="58">
+      <c r="W11" s="61">
         <f>G30</f>
         <v>67.136391653039169</v>
       </c>
-      <c r="X11" s="61">
+      <c r="X11" s="64">
         <f>AVERAGE(R13:V13)</f>
         <v>0.21040749181747417</v>
       </c>
@@ -55345,7 +55741,7 @@
         <f>'WHEAT RESULT'!B25</f>
         <v>4.7092363238334604E-3</v>
       </c>
-      <c r="P12" s="50"/>
+      <c r="P12" s="57"/>
       <c r="Q12" s="11" t="s">
         <v>28</v>
       </c>
@@ -55369,8 +55765,8 @@
         <f>F23</f>
         <v>3.2308753579854903E-2</v>
       </c>
-      <c r="W12" s="58"/>
-      <c r="X12" s="61"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="64"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
@@ -55396,7 +55792,7 @@
         <f>MIN(F10:F12, 'SARIMAX QLOSS'!F10:F12)</f>
         <v>4.1782734915614102E-3</v>
       </c>
-      <c r="P13" s="63"/>
+      <c r="P13" s="58"/>
       <c r="Q13" s="12" t="s">
         <v>48</v>
       </c>
@@ -55420,8 +55816,8 @@
         <f t="shared" si="4"/>
         <v>0.45690924301743507</v>
       </c>
-      <c r="W13" s="59"/>
-      <c r="X13" s="62"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="65"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
@@ -55685,14 +56081,14 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
     </row>
     <row r="26" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="53"/>
@@ -55823,14 +56219,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="53"/>
@@ -55938,6 +56334,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="W5:W7"/>
+    <mergeCell ref="W8:W10"/>
+    <mergeCell ref="W11:W13"/>
+    <mergeCell ref="X5:X7"/>
+    <mergeCell ref="X8:X10"/>
+    <mergeCell ref="X11:X13"/>
     <mergeCell ref="A33:F34"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="R3:V3"/>
@@ -55948,12 +56350,6 @@
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:F26"/>
-    <mergeCell ref="W5:W7"/>
-    <mergeCell ref="W8:W10"/>
-    <mergeCell ref="W11:W13"/>
-    <mergeCell ref="X5:X7"/>
-    <mergeCell ref="X8:X10"/>
-    <mergeCell ref="X11:X13"/>
   </mergeCells>
   <conditionalFormatting sqref="B10:B12">
     <cfRule type="colorScale" priority="15">
@@ -56142,844 +56538,951 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E292C4C-1258-3740-AA86-EA09B2081FF5}">
-  <dimension ref="A3:Z39"/>
+  <dimension ref="A3:AB39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="K1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="AJ34" sqref="AJ34"/>
+    <sheetView showGridLines="0" topLeftCell="H1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17:X36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="R3" s="51" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="S3" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="P4" s="45" t="s">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="Q4" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="45" t="s">
+      <c r="R4" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="46">
+      <c r="S4" s="36">
+        <v>7</v>
+      </c>
+      <c r="T4" s="37">
         <v>6</v>
       </c>
-      <c r="S4" s="46">
+      <c r="U4" s="37">
         <v>5</v>
       </c>
-      <c r="T4" s="46">
+      <c r="V4" s="37">
         <v>4</v>
       </c>
-      <c r="U4" s="46">
+      <c r="W4" s="37">
         <v>3</v>
       </c>
-      <c r="V4" s="46">
+      <c r="X4" s="37">
         <v>2</v>
       </c>
-      <c r="W4" s="28" t="s">
+      <c r="Y4" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="X4" s="28" t="s">
+      <c r="Z4" s="28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>5</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>2</v>
       </c>
-      <c r="P5" s="64" t="s">
+      <c r="Q5" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="R5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="20">
+      <c r="S5" s="87">
         <f>B6</f>
+        <v>2.1930772811174299E-2</v>
+      </c>
+      <c r="T5" s="20">
+        <f>C6</f>
         <v>3.4578815102577203E-2</v>
       </c>
-      <c r="S5" s="20">
-        <f t="shared" ref="S5:V5" si="0">C6</f>
+      <c r="U5" s="20">
+        <f>D6</f>
         <v>1.07929985970258E-2</v>
       </c>
-      <c r="T5" s="20">
-        <f t="shared" si="0"/>
+      <c r="V5" s="20">
+        <f>E6</f>
         <v>1.7073310911655398E-2</v>
       </c>
-      <c r="U5" s="20">
-        <f t="shared" si="0"/>
+      <c r="W5" s="20">
+        <f>F6</f>
         <v>3.04000545293092E-2</v>
       </c>
-      <c r="V5" s="17">
-        <f t="shared" si="0"/>
+      <c r="X5" s="17">
+        <f>G6</f>
         <v>5.16424067318439E-2</v>
       </c>
-      <c r="W5" s="57">
-        <f>G28</f>
-        <v>43.784799094833417</v>
-      </c>
-      <c r="X5" s="60">
-        <f>AVERAGE(R7:V7)</f>
-        <v>1.7178007122129184E-2</v>
-      </c>
-      <c r="Y5">
-        <f>X5/Z5*100</f>
-        <v>5.1376564012799806</v>
-      </c>
-      <c r="Z5" s="2">
+      <c r="Y5" s="60">
+        <f>H28</f>
+        <v>24.275247968373662</v>
+      </c>
+      <c r="Z5" s="63">
+        <f>AVERAGE(S7:X7)</f>
+        <v>1.1636801403636703E-2</v>
+      </c>
+      <c r="AA5">
+        <f>Z5/AB5*100</f>
+        <v>3.4803738755469564</v>
+      </c>
+      <c r="AB5" s="2">
         <v>0.334354923343054</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="65">
+      <c r="B6" s="79">
+        <v>2.1930772811174299E-2</v>
+      </c>
+      <c r="C6" s="41">
         <v>3.4578815102577203E-2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>1.07929985970258E-2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>1.7073310911655398E-2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>3.04000545293092E-2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>5.16424067318439E-2</v>
       </c>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="57"/>
+      <c r="R6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="R6" s="7">
+      <c r="S6" s="72">
         <f>B13</f>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T6" s="7">
+        <f>C13</f>
         <v>2.7124306187033601E-2</v>
       </c>
-      <c r="S6" s="7">
-        <f t="shared" ref="S6:V6" si="1">C13</f>
+      <c r="U6" s="7">
+        <f>D13</f>
         <v>1.50199178606271E-2</v>
       </c>
-      <c r="T6" s="7">
-        <f t="shared" si="1"/>
+      <c r="V6" s="7">
+        <f>E13</f>
         <v>5.8424868620932102E-3</v>
       </c>
-      <c r="U6" s="7">
-        <f t="shared" si="1"/>
+      <c r="W6" s="7">
+        <f>F13</f>
         <v>6.43256586045026E-3</v>
       </c>
-      <c r="V6" s="18">
-        <f t="shared" si="1"/>
+      <c r="X6" s="18">
+        <f>G13</f>
         <v>4.1782734915614102E-3</v>
       </c>
-      <c r="W6" s="58"/>
-      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="64"/>
     </row>
-    <row r="7" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="79">
+        <v>4.8458132892846999E-2</v>
+      </c>
+      <c r="C7" s="2">
         <v>4.2829886078834499E-2</v>
       </c>
-      <c r="C7" s="65">
+      <c r="D7" s="41">
         <v>0.117285922169685</v>
       </c>
-      <c r="D7" s="65">
+      <c r="E7" s="41">
         <v>2.5214286521077101E-2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>9.7052827477455098E-2</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>1.9371462985873202E-2</v>
       </c>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="12" t="s">
+      <c r="Q7" s="58"/>
+      <c r="R7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="R7" s="21">
-        <f>R5-R6</f>
+      <c r="S7" s="21">
+        <f>S5-S6</f>
+        <v>-1.60692271888257E-2</v>
+      </c>
+      <c r="T7" s="21">
+        <f>T5-T6</f>
         <v>7.4545089155436013E-3</v>
       </c>
-      <c r="S7" s="21">
-        <f t="shared" ref="S7:V7" si="2">S5-S6</f>
+      <c r="U7" s="21">
+        <f t="shared" ref="U7:X7" si="0">U5-U6</f>
         <v>-4.2269192636012996E-3</v>
       </c>
-      <c r="T7" s="21">
-        <f t="shared" si="2"/>
+      <c r="V7" s="21">
+        <f t="shared" si="0"/>
         <v>1.1230824049562188E-2</v>
       </c>
-      <c r="U7" s="21">
-        <f t="shared" si="2"/>
+      <c r="W7" s="21">
+        <f t="shared" si="0"/>
         <v>2.3967488668858939E-2</v>
       </c>
-      <c r="V7" s="21">
-        <f t="shared" si="2"/>
+      <c r="X7" s="21">
+        <f t="shared" si="0"/>
         <v>4.7464133240282487E-2</v>
       </c>
-      <c r="W7" s="59"/>
-      <c r="X7" s="62"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="65"/>
     </row>
-    <row r="8" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="79">
+        <v>0.28228414058685303</v>
+      </c>
+      <c r="C8" s="2">
         <v>0.151197358965873</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>0.23719403147697399</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>0.18943491578102101</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>0.31120327115058899</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>0.48921799659728998</v>
       </c>
-      <c r="P8" s="64" t="s">
+      <c r="Q8" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="Q8" s="10" t="s">
+      <c r="R8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="R8" s="20">
+      <c r="S8" s="20">
         <f>B7</f>
+        <v>4.8458132892846999E-2</v>
+      </c>
+      <c r="T8" s="20">
+        <f>C7</f>
         <v>4.2829886078834499E-2</v>
       </c>
-      <c r="S8" s="20">
-        <f>C7</f>
+      <c r="U8" s="20">
+        <f>D7</f>
         <v>0.117285922169685</v>
       </c>
-      <c r="T8" s="20">
-        <f>D7</f>
+      <c r="V8" s="20">
+        <f>E7</f>
         <v>2.5214286521077101E-2</v>
       </c>
-      <c r="U8" s="20">
-        <f>E7</f>
+      <c r="W8" s="20">
+        <f>F7</f>
         <v>9.7052827477455098E-2</v>
       </c>
-      <c r="V8" s="17">
-        <f>F7</f>
+      <c r="X8" s="17">
+        <f>G7</f>
         <v>1.9371462985873202E-2</v>
       </c>
-      <c r="W8" s="57">
-        <f>G29</f>
-        <v>49.132933176775758</v>
-      </c>
-      <c r="X8" s="60">
-        <f>AVERAGE(R10:V10)</f>
-        <v>4.1227666102349722E-2</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" ref="Y6:Y13" si="3">X8/Z8*100</f>
-        <v>11.869127305044392</v>
-      </c>
-      <c r="Z8" s="2">
+      <c r="Y8" s="60">
+        <f>H29</f>
+        <v>42.477439040253792</v>
+      </c>
+      <c r="Z8" s="63">
+        <f>AVERAGE(S10:X10)</f>
+        <v>3.5099410567432598E-2</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" ref="AA8:AA11" si="1">Z8/AB8*100</f>
+        <v>10.104849770604268</v>
+      </c>
+      <c r="AB8" s="2">
         <v>0.34735212659508602</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="P9" s="50"/>
-      <c r="Q9" s="11" t="s">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Q9" s="57"/>
+      <c r="R9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="7">
+      <c r="S9" s="81">
         <f>B18</f>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="T9" s="7">
+        <f>C18</f>
         <v>2.4020601063966699E-2</v>
       </c>
-      <c r="S9" s="7">
-        <f>C18</f>
+      <c r="U9" s="7">
+        <f>D18</f>
         <v>1.5607588924467499E-2</v>
       </c>
-      <c r="T9" s="7">
-        <f>D18</f>
+      <c r="V9" s="7">
+        <f>E18</f>
         <v>2.36118044704198E-2</v>
       </c>
-      <c r="U9" s="7">
-        <f>E18</f>
+      <c r="W9" s="7">
+        <f>F18</f>
         <v>1.83532107621431E-2</v>
       </c>
-      <c r="V9" s="18">
-        <f>F18</f>
+      <c r="X9" s="18">
+        <f>G18</f>
         <v>1.4022849500179201E-2</v>
       </c>
-      <c r="W9" s="58"/>
-      <c r="X9" s="61"/>
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="64"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="2">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C10" s="8">
         <f>'WHEAT RESULT'!B5</f>
         <v>3.5586878657341003E-2</v>
       </c>
-      <c r="C10" s="8">
+      <c r="D10" s="8">
         <f>'WHEAT RESULT'!B6</f>
         <v>2.1410143002867699E-2</v>
       </c>
-      <c r="D10" s="8">
+      <c r="E10" s="8">
         <f>'WHEAT RESULT'!B7</f>
         <v>5.8424868620932102E-3</v>
       </c>
-      <c r="E10" s="8">
+      <c r="F10" s="8">
         <f>'WHEAT RESULT'!B8</f>
         <v>6.4699342474341297E-3</v>
       </c>
-      <c r="F10" s="8">
+      <c r="G10" s="8">
         <f>'WHEAT RESULT'!B9</f>
         <v>1.6838256269693298E-2</v>
       </c>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="12" t="s">
+      <c r="Q10" s="58"/>
+      <c r="R10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="R10" s="21">
-        <f>R8-R9</f>
+      <c r="S10" s="21">
+        <f>S8-S9</f>
+        <v>4.4581328928470013E-3</v>
+      </c>
+      <c r="T10" s="21">
+        <f>T8-T9</f>
         <v>1.88092850148678E-2</v>
       </c>
-      <c r="S10" s="21">
-        <f t="shared" ref="S10:V10" si="4">S8-S9</f>
+      <c r="U10" s="21">
+        <f t="shared" ref="U10:X10" si="2">U8-U9</f>
         <v>0.10167833324521751</v>
       </c>
-      <c r="T10" s="21">
-        <f t="shared" si="4"/>
+      <c r="V10" s="21">
+        <f t="shared" si="2"/>
         <v>1.6024820506573001E-3</v>
       </c>
-      <c r="U10" s="21">
-        <f t="shared" si="4"/>
+      <c r="W10" s="21">
+        <f t="shared" si="2"/>
         <v>7.8699616715312004E-2</v>
       </c>
-      <c r="V10" s="21">
-        <f t="shared" si="4"/>
+      <c r="X10" s="21">
+        <f t="shared" si="2"/>
         <v>5.348613485694001E-3</v>
       </c>
-      <c r="W10" s="59"/>
-      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="65"/>
     </row>
-    <row r="11" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="55"/>
-      <c r="B11" s="30">
+      <c r="B11" s="74">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C11" s="30">
         <f>'WHEAT RESULT'!B13</f>
         <v>3.3524759113788598E-2</v>
       </c>
-      <c r="C11" s="6">
+      <c r="D11" s="6">
         <f>'WHEAT RESULT'!B14</f>
         <v>2.5335250422358499E-2</v>
       </c>
-      <c r="D11" s="6">
+      <c r="E11" s="6">
         <f>'WHEAT RESULT'!B15</f>
         <v>6.5650087781250399E-3</v>
       </c>
-      <c r="E11" s="6">
+      <c r="F11" s="6">
         <f>'WHEAT RESULT'!B16</f>
         <v>2.81584113836288E-2</v>
       </c>
-      <c r="F11" s="18">
+      <c r="G11" s="18">
         <f>'WHEAT RESULT'!B17</f>
         <v>4.1782734915614102E-3</v>
       </c>
-      <c r="P11" s="50" t="s">
+      <c r="Q11" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="R11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="R11" s="7">
+      <c r="S11" s="81">
         <f>B8</f>
+        <v>0.28228414058685303</v>
+      </c>
+      <c r="T11" s="7">
+        <f>C8</f>
         <v>0.151197358965873</v>
       </c>
-      <c r="S11" s="7">
-        <f>C8</f>
+      <c r="U11" s="7">
+        <f>D8</f>
         <v>0.23719403147697399</v>
       </c>
-      <c r="T11" s="7">
-        <f>D8</f>
+      <c r="V11" s="7">
+        <f>E8</f>
         <v>0.18943491578102101</v>
       </c>
-      <c r="U11" s="7">
-        <f>E8</f>
+      <c r="W11" s="7">
+        <f>F8</f>
         <v>0.31120327115058899</v>
       </c>
-      <c r="V11" s="18">
-        <f>F8</f>
+      <c r="X11" s="18">
+        <f>G8</f>
         <v>0.48921799659728998</v>
       </c>
-      <c r="W11" s="58">
-        <f>G30</f>
-        <v>67.136391653039169</v>
-      </c>
-      <c r="X11" s="61">
-        <f>AVERAGE(R13:V13)</f>
-        <v>0.21040749181747417</v>
-      </c>
-      <c r="Y11">
-        <f t="shared" si="3"/>
-        <v>13.390944022968721</v>
-      </c>
-      <c r="Z11" s="2">
+      <c r="Y11" s="61">
+        <f>H30</f>
+        <v>62.458407415405723</v>
+      </c>
+      <c r="Z11" s="64">
+        <f>AVERAGE(S13:X13)</f>
+        <v>0.19372026661237066</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="1"/>
+        <v>12.328920533738307</v>
+      </c>
+      <c r="AB11" s="2">
         <v>1.57126705523206</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="56"/>
-      <c r="B12" s="29">
+      <c r="B12" s="75">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C12" s="29">
         <f>'WHEAT RESULT'!B21</f>
         <v>2.7124306187033601E-2</v>
       </c>
-      <c r="C12" s="9">
+      <c r="D12" s="9">
         <f>'WHEAT RESULT'!B22</f>
         <v>1.50199178606271E-2</v>
       </c>
-      <c r="D12" s="9">
+      <c r="E12" s="9">
         <f>'WHEAT RESULT'!B23</f>
         <v>1.21646877378225E-2</v>
       </c>
-      <c r="E12" s="9">
+      <c r="F12" s="9">
         <f>'WHEAT RESULT'!B24</f>
         <v>1.06056993827223E-2</v>
       </c>
-      <c r="F12" s="19">
+      <c r="G12" s="19">
         <f>'WHEAT RESULT'!B25</f>
         <v>4.7092363238334604E-3</v>
       </c>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="57"/>
+      <c r="R12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="R12" s="7">
+      <c r="S12" s="81">
         <f>B23</f>
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="T12" s="7">
+        <f>C23</f>
         <v>0.121985003352165</v>
       </c>
-      <c r="S12" s="7">
-        <f>C23</f>
+      <c r="U12" s="7">
+        <f>D23</f>
         <v>8.43E-2</v>
       </c>
-      <c r="T12" s="7">
-        <f>D23</f>
+      <c r="V12" s="7">
+        <f>E23</f>
         <v>6.4583964645862496E-2</v>
       </c>
-      <c r="U12" s="7">
-        <f>E23</f>
+      <c r="W12" s="7">
+        <f>F23</f>
         <v>2.30323933064937E-2</v>
       </c>
-      <c r="V12" s="18">
-        <f>F23</f>
+      <c r="X12" s="18">
+        <f>G23</f>
         <v>3.2308753579854903E-2</v>
       </c>
-      <c r="W12" s="58"/>
-      <c r="X12" s="61"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="64"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="6">
-        <f>MIN(B10:B12, 'SARIMAX QLOSS'!B10:B12)</f>
+      <c r="B13" s="5">
+        <f>MIN(B10:B12)</f>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C13" s="6">
+        <f>MIN(C10:C12, 'SARIMAX QLOSS'!B10:B12)</f>
         <v>2.7124306187033601E-2</v>
       </c>
-      <c r="C13" s="6">
-        <f>MIN(C10:C12, 'SARIMAX QLOSS'!C10:C12)</f>
+      <c r="D13" s="6">
+        <f>MIN(D10:D12, 'SARIMAX QLOSS'!C10:C12)</f>
         <v>1.50199178606271E-2</v>
       </c>
-      <c r="D13" s="6">
-        <f>MIN(D10:D12, 'SARIMAX QLOSS'!D10:D12)</f>
+      <c r="E13" s="6">
+        <f>MIN(E10:E12, 'SARIMAX QLOSS'!D10:D12)</f>
         <v>5.8424868620932102E-3</v>
       </c>
-      <c r="E13" s="6">
-        <f>MIN(E10:E12, 'SARIMAX QLOSS'!E10:E12)</f>
+      <c r="F13" s="6">
+        <f>MIN(F10:F12, 'SARIMAX QLOSS'!E10:E12)</f>
         <v>6.43256586045026E-3</v>
       </c>
-      <c r="F13" s="6">
-        <f>MIN(F10:F12, 'SARIMAX QLOSS'!F10:F12)</f>
+      <c r="G13" s="6">
+        <f>MIN(G10:G12, 'SARIMAX QLOSS'!F10:F12)</f>
         <v>4.1782734915614102E-3</v>
       </c>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="12" t="s">
+      <c r="Q13" s="58"/>
+      <c r="R13" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="R13" s="21">
-        <f>R11-R12</f>
+      <c r="S13" s="21">
+        <f>S11-S12</f>
+        <v>0.11028414058685304</v>
+      </c>
+      <c r="T13" s="21">
+        <f>T11-T12</f>
         <v>2.9212355613707996E-2</v>
       </c>
-      <c r="S13" s="21">
-        <f t="shared" ref="S13:V13" si="5">S11-S12</f>
+      <c r="U13" s="21">
+        <f t="shared" ref="U13:X13" si="3">U11-U12</f>
         <v>0.152894031476974</v>
       </c>
-      <c r="T13" s="21">
-        <f t="shared" si="5"/>
+      <c r="V13" s="21">
+        <f t="shared" si="3"/>
         <v>0.12485095113515851</v>
       </c>
-      <c r="U13" s="21">
-        <f t="shared" si="5"/>
+      <c r="W13" s="21">
+        <f t="shared" si="3"/>
         <v>0.28817087784409529</v>
       </c>
-      <c r="V13" s="21">
-        <f t="shared" si="5"/>
+      <c r="X13" s="21">
+        <f t="shared" si="3"/>
         <v>0.45690924301743507</v>
       </c>
-      <c r="W13" s="59"/>
-      <c r="X13" s="62"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="65"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
-      <c r="B14" s="6">
-        <f>STDEV(B10:B12)</f>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6">
+        <f>STDEV(C10:C12)</f>
         <v>4.4127328549458649E-3</v>
       </c>
-      <c r="C14" s="6">
-        <f t="shared" ref="C14:F14" si="6">STDEV(C10:C12)</f>
+      <c r="D14" s="6">
+        <f t="shared" ref="D14:G14" si="4">STDEV(D10:D12)</f>
         <v>5.2065268570993684E-3</v>
       </c>
-      <c r="D14" s="6">
-        <f t="shared" si="6"/>
+      <c r="E14" s="6">
+        <f t="shared" si="4"/>
         <v>3.4604591767542665E-3</v>
       </c>
-      <c r="E14" s="6">
-        <f t="shared" si="6"/>
+      <c r="F14" s="6">
+        <f t="shared" si="4"/>
         <v>1.1515151557319829E-2</v>
       </c>
-      <c r="F14" s="6">
-        <f t="shared" si="6"/>
+      <c r="G14" s="6">
+        <f t="shared" si="4"/>
         <v>7.1608915915887215E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="81">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="C15" s="8">
         <f>'MAIZE RESULT'!B5</f>
         <v>2.7540910989046E-2</v>
       </c>
-      <c r="C15" s="8">
+      <c r="D15" s="8">
         <f>'MAIZE RESULT'!B6</f>
         <v>2.59380266070365E-2</v>
       </c>
-      <c r="D15" s="8">
+      <c r="E15" s="8">
         <f>'MAIZE RESULT'!B7</f>
         <v>2.7645479887723898E-2</v>
       </c>
-      <c r="E15" s="8">
+      <c r="F15" s="8">
         <f>'MAIZE RESULT'!B8</f>
         <v>2.4412622675299599E-2</v>
       </c>
-      <c r="F15" s="17">
+      <c r="G15" s="17">
         <f>'MAIZE RESULT'!B9</f>
         <v>2.0287305116653401E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="55"/>
-      <c r="B16" s="6">
+      <c r="B16" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C16" s="6">
         <f>'MAIZE RESULT'!B13</f>
         <v>3.3526878803968402E-2</v>
       </c>
-      <c r="C16" s="6">
+      <c r="D16" s="6">
         <f>'MAIZE RESULT'!B14</f>
         <v>2.9199143871665001E-2</v>
       </c>
-      <c r="D16" s="6">
+      <c r="E16" s="6">
         <f>'MAIZE RESULT'!B15</f>
         <v>2.54176594316959E-2</v>
       </c>
-      <c r="E16" s="6">
+      <c r="F16" s="6">
         <f>'MAIZE RESULT'!B16</f>
         <v>1.83532107621431E-2</v>
       </c>
-      <c r="F16" s="18">
+      <c r="G16" s="18">
         <f>'MAIZE RESULT'!B17</f>
         <v>1.9284650683403001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
-      <c r="B17" s="9">
+      <c r="B17" s="2">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C17" s="9">
         <f>'MAIZE RESULT'!B21</f>
         <v>3.9714138954877798E-2</v>
       </c>
-      <c r="C17" s="9">
+      <c r="D17" s="9">
         <f>'MAIZE RESULT'!B22</f>
         <v>2.5108855217695202E-2</v>
       </c>
-      <c r="D17" s="9">
+      <c r="E17" s="9">
         <f>'MAIZE RESULT'!B23</f>
         <v>2.5139164179563502E-2</v>
       </c>
-      <c r="E17" s="9">
+      <c r="F17" s="9">
         <f>'MAIZE RESULT'!B24</f>
         <v>2.20772419124841E-2</v>
       </c>
-      <c r="F17" s="19">
+      <c r="G17" s="19">
         <f>'MAIZE RESULT'!B25</f>
         <v>1.4022849500179201E-2</v>
       </c>
-      <c r="R17" s="53" t="s">
+      <c r="S17" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="S17" s="53"/>
-      <c r="T17" s="53"/>
-      <c r="U17" s="53"/>
-      <c r="V17" s="53"/>
+      <c r="T17" s="84"/>
+      <c r="U17" s="84"/>
+      <c r="V17" s="84"/>
+      <c r="W17" s="84"/>
+      <c r="X17" s="84"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="6">
-        <f>MIN(B15:B17, 'SARIMAX QLOSS'!B15:B17)</f>
+      <c r="B18" s="82">
+        <f>MIN(B15:B17)</f>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C18" s="6">
+        <f>MIN(C15:C17, 'SARIMAX QLOSS'!B15:B17)</f>
         <v>2.4020601063966699E-2</v>
       </c>
-      <c r="C18" s="6">
-        <f>MIN(C15:C17, 'SARIMAX QLOSS'!C15:C17)</f>
+      <c r="D18" s="6">
+        <f>MIN(D15:D17, 'SARIMAX QLOSS'!C15:C17)</f>
         <v>1.5607588924467499E-2</v>
       </c>
-      <c r="D18" s="6">
-        <f>MIN(D15:D17, 'SARIMAX QLOSS'!D15:D17)</f>
+      <c r="E18" s="6">
+        <f>MIN(E15:E17, 'SARIMAX QLOSS'!D15:D17)</f>
         <v>2.36118044704198E-2</v>
       </c>
-      <c r="E18" s="6">
-        <f>MIN(E15:E17, 'SARIMAX QLOSS'!E15:E17)</f>
+      <c r="F18" s="6">
+        <f>MIN(F15:F17, 'SARIMAX QLOSS'!E15:E17)</f>
         <v>1.83532107621431E-2</v>
       </c>
-      <c r="F18" s="6">
-        <f>MIN(F15:F17, 'SARIMAX QLOSS'!F15:F17)</f>
+      <c r="G18" s="6">
+        <f>MIN(G15:G17, 'SARIMAX QLOSS'!F15:F17)</f>
         <v>1.4022849500179201E-2</v>
       </c>
-      <c r="P18" s="45" t="s">
+      <c r="Q18" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="Q18" s="76" t="s">
+      <c r="R18" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="R18" s="83">
+      <c r="S18" s="16">
+        <v>7</v>
+      </c>
+      <c r="T18" s="5">
         <v>6</v>
       </c>
-      <c r="S18" s="83">
+      <c r="U18" s="5">
         <v>5</v>
       </c>
-      <c r="T18" s="83">
+      <c r="V18" s="5">
         <v>4</v>
       </c>
-      <c r="U18" s="83">
+      <c r="W18" s="5">
         <v>3</v>
       </c>
-      <c r="V18" s="83">
+      <c r="X18" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
-      <c r="B19" s="6">
-        <f>STDEV(B15:B17)</f>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6">
+        <f>STDEV(C15:C17)</f>
         <v>6.0868913517003491E-3</v>
       </c>
-      <c r="C19" s="6">
-        <f t="shared" ref="C19:F19" si="7">STDEV(C15:C17)</f>
+      <c r="D19" s="6">
+        <f t="shared" ref="D19:G19" si="5">STDEV(D15:D17)</f>
         <v>2.1622855299949914E-3</v>
       </c>
-      <c r="D19" s="6">
-        <f t="shared" si="7"/>
+      <c r="E19" s="6">
+        <f t="shared" si="5"/>
         <v>1.3737031471372455E-3</v>
       </c>
-      <c r="E19" s="6">
-        <f t="shared" si="7"/>
+      <c r="F19" s="6">
+        <f t="shared" si="5"/>
         <v>3.0561109286515796E-3</v>
       </c>
-      <c r="F19" s="6">
-        <f t="shared" si="7"/>
+      <c r="G19" s="6">
+        <f t="shared" si="5"/>
         <v>3.3648990023245184E-3</v>
       </c>
-      <c r="P19" s="64" t="s">
+      <c r="Q19" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="Q19" s="10" t="s">
+      <c r="R19" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="R19" s="80">
+      <c r="S19" s="48">
         <v>0</v>
       </c>
-      <c r="S19" s="80">
+      <c r="T19" s="46">
+        <v>0</v>
+      </c>
+      <c r="U19" s="46">
         <v>2</v>
       </c>
-      <c r="T19" s="80">
+      <c r="V19" s="46">
         <v>1</v>
       </c>
-      <c r="U19" s="80">
+      <c r="W19" s="46">
         <v>2</v>
       </c>
-      <c r="V19" s="80">
+      <c r="X19" s="46">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="2">
+        <v>0.188</v>
+      </c>
+      <c r="C20" s="8">
         <f>'SUNFLOWER RESULT'!B5</f>
         <v>0.15241852402687001</v>
       </c>
-      <c r="C20" s="8">
+      <c r="D20" s="8">
         <f>'SUNFLOWER RESULT'!B6</f>
         <v>0.12488929182291</v>
       </c>
-      <c r="D20" s="8">
+      <c r="E20" s="8">
         <f>'SUNFLOWER RESULT'!B7</f>
         <v>7.8823208808898898E-2</v>
       </c>
-      <c r="E20" s="20">
+      <c r="F20" s="20">
         <f>'SUNFLOWER RESULT'!B8</f>
         <v>6.1555106192827197E-2</v>
       </c>
-      <c r="F20" s="17">
+      <c r="G20" s="17">
         <f>'SUNFLOWER RESULT'!B9</f>
         <v>4.4066783040761899E-2</v>
       </c>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="11" t="s">
+      <c r="Q20" s="57"/>
+      <c r="R20" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="R20" s="81">
+      <c r="S20" s="85">
         <v>2</v>
       </c>
-      <c r="S20" s="81">
+      <c r="T20" s="47">
         <v>2</v>
       </c>
-      <c r="T20" s="81">
+      <c r="U20" s="47">
         <v>2</v>
       </c>
-      <c r="U20" s="81">
+      <c r="V20" s="47">
         <v>2</v>
       </c>
-      <c r="V20" s="81">
+      <c r="W20" s="47">
         <v>2</v>
       </c>
+      <c r="X20" s="47">
+        <v>2</v>
+      </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="55"/>
-      <c r="B21" s="6">
+      <c r="B21" s="2">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="C21" s="6">
         <f>'SUNFLOWER RESULT'!B13</f>
         <v>0.21660570800304399</v>
       </c>
-      <c r="C21" s="6">
+      <c r="D21" s="6">
         <f>'SUNFLOWER RESULT'!B14</f>
         <v>0.150930300354957</v>
       </c>
-      <c r="D21" s="6">
+      <c r="E21" s="6">
         <f>'SUNFLOWER RESULT'!B15</f>
         <v>8.3591483533382402E-2</v>
       </c>
-      <c r="E21" s="7">
+      <c r="F21" s="7">
         <f>'SUNFLOWER RESULT'!B16</f>
         <v>2.30323933064937E-2</v>
       </c>
-      <c r="F21" s="18">
+      <c r="G21" s="18">
         <f>'SUNFLOWER RESULT'!B17</f>
         <v>3.2308753579854903E-2</v>
       </c>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="11" t="s">
+      <c r="Q21" s="57"/>
+      <c r="R21" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="R21" s="81">
+      <c r="S21" s="85">
         <v>1</v>
       </c>
-      <c r="S21" s="81">
+      <c r="T21" s="47">
+        <v>1</v>
+      </c>
+      <c r="U21" s="47">
         <v>0</v>
       </c>
-      <c r="T21" s="81">
+      <c r="V21" s="47">
         <v>1</v>
       </c>
-      <c r="U21" s="81">
+      <c r="W21" s="47">
         <v>0</v>
       </c>
-      <c r="V21" s="81">
+      <c r="X21" s="47">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
-      <c r="B22" s="9">
+      <c r="B22" s="2">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="C22" s="9">
         <f>'SUNFLOWER RESULT'!B21</f>
         <v>0.14904454350471399</v>
       </c>
-      <c r="C22" s="9">
+      <c r="D22" s="9">
         <f>'SUNFLOWER RESULT'!B22</f>
         <v>0.12819625437259599</v>
       </c>
-      <c r="D22" s="21">
+      <c r="E22" s="21">
         <f>'SUNFLOWER RESULT'!B23</f>
         <v>6.4583964645862496E-2</v>
       </c>
-      <c r="E22" s="21">
+      <c r="F22" s="21">
         <f>'SUNFLOWER RESULT'!B24</f>
         <v>6.6480487585067694E-2</v>
       </c>
-      <c r="F22" s="19">
+      <c r="G22" s="19">
         <f>'SUNFLOWER RESULT'!B25</f>
         <v>4.3011415749788201E-2</v>
       </c>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="78" t="s">
+      <c r="Q22" s="57"/>
+      <c r="R22" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="R22" s="82">
+      <c r="S22" s="86">
+        <v>0</v>
+      </c>
+      <c r="T22" s="47">
         <v>1</v>
       </c>
-      <c r="S22" s="75">
+      <c r="U22" s="16">
         <v>2</v>
       </c>
-      <c r="T22" s="75">
+      <c r="V22" s="16">
         <v>2</v>
       </c>
-      <c r="U22" s="75">
+      <c r="W22" s="16">
         <v>2</v>
       </c>
-      <c r="V22" s="75">
+      <c r="X22" s="16">
         <v>2</v>
       </c>
     </row>
@@ -56987,116 +57490,131 @@
       <c r="A23" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="6">
-        <f>MIN(B20:B22,'SARIMAX QLOSS'!B20:B22)</f>
+      <c r="B23" s="16">
+        <f>MIN(B20:B22)</f>
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="C23" s="6">
+        <f>MIN(C20:C22,'SARIMAX QLOSS'!B20:B22)</f>
         <v>0.121985003352165</v>
       </c>
-      <c r="C23" s="6">
-        <f>MIN(C20:C22,'SARIMAX QLOSS'!C20:C22)</f>
+      <c r="D23" s="6">
+        <f>MIN(D20:D22,'SARIMAX QLOSS'!C20:C22)</f>
         <v>8.43E-2</v>
       </c>
-      <c r="D23" s="6">
-        <f>MIN(D20:D22,'SARIMAX QLOSS'!D20:D22)</f>
+      <c r="E23" s="6">
+        <f>MIN(E20:E22,'SARIMAX QLOSS'!D20:D22)</f>
         <v>6.4583964645862496E-2</v>
       </c>
-      <c r="E23" s="6">
-        <f>MIN(E20:E22,'SARIMAX QLOSS'!E20:E22)</f>
+      <c r="F23" s="6">
+        <f>MIN(F20:F22,'SARIMAX QLOSS'!E20:E22)</f>
         <v>2.30323933064937E-2</v>
       </c>
-      <c r="F23" s="6">
-        <f>MIN(F20:F22,'SARIMAX QLOSS'!F20:F22)</f>
+      <c r="G23" s="6">
+        <f>MIN(G20:G22,'SARIMAX QLOSS'!F20:F22)</f>
         <v>3.2308753579854903E-2</v>
       </c>
-      <c r="P23" s="88"/>
-      <c r="Q23" s="78" t="s">
+      <c r="Q23" s="57"/>
+      <c r="R23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="R23" s="82">
+      <c r="S23" s="86">
         <v>1</v>
       </c>
-      <c r="S23" s="75">
+      <c r="T23" s="47">
         <v>1</v>
       </c>
-      <c r="T23" s="75">
+      <c r="U23" s="16">
         <v>1</v>
       </c>
-      <c r="U23" s="75">
+      <c r="V23" s="16">
         <v>1</v>
       </c>
-      <c r="V23" s="75">
+      <c r="W23" s="16">
+        <v>1</v>
+      </c>
+      <c r="X23" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
-      <c r="B24" s="6">
-        <f>STDEV(B20:B22)</f>
+      <c r="B24" s="16"/>
+      <c r="C24" s="6">
+        <f>STDEV(C20:C22)</f>
         <v>3.8069868399486957E-2</v>
       </c>
-      <c r="C24" s="6">
-        <f t="shared" ref="C24:F24" si="8">STDEV(C20:C22)</f>
+      <c r="D24" s="6">
+        <f t="shared" ref="D24:G24" si="6">STDEV(D20:D22)</f>
         <v>1.4176900069004711E-2</v>
       </c>
-      <c r="D24" s="6">
-        <f t="shared" si="8"/>
+      <c r="E24" s="6">
+        <f t="shared" si="6"/>
         <v>9.8892053307478196E-3</v>
       </c>
-      <c r="E24" s="6">
-        <f t="shared" si="8"/>
+      <c r="F24" s="6">
+        <f t="shared" si="6"/>
         <v>2.3790739397301093E-2</v>
       </c>
-      <c r="F24" s="6">
-        <f t="shared" si="8"/>
+      <c r="G24" s="6">
+        <f t="shared" si="6"/>
         <v>6.5052803481240821E-3</v>
       </c>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="78" t="s">
+      <c r="Q24" s="58"/>
+      <c r="R24" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="R24" s="66" t="s">
+      <c r="S24" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="S24" s="66">
+      <c r="T24" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="U24" s="42">
         <v>0</v>
       </c>
-      <c r="T24" s="66">
+      <c r="V24" s="42">
         <v>0</v>
       </c>
-      <c r="U24" s="66">
+      <c r="W24" s="42">
         <v>0</v>
       </c>
-      <c r="V24" s="66">
+      <c r="X24" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="P25" s="64" t="s">
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="Q25" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="Q25" s="10" t="s">
+      <c r="R25" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="R25" s="84">
+      <c r="S25" s="48">
         <v>1</v>
       </c>
-      <c r="S25" s="84">
+      <c r="T25" s="48">
+        <v>1</v>
+      </c>
+      <c r="U25" s="48">
         <v>0</v>
       </c>
-      <c r="T25" s="84">
+      <c r="V25" s="48">
         <v>0</v>
       </c>
-      <c r="U25" s="84">
+      <c r="W25" s="48">
         <v>0</v>
       </c>
-      <c r="V25" s="84">
+      <c r="X25" s="48">
         <v>1</v>
       </c>
     </row>
@@ -57107,63 +57625,71 @@
       <c r="D26" s="53"/>
       <c r="E26" s="53"/>
       <c r="F26" s="53"/>
-      <c r="G26" t="s">
+      <c r="G26" s="53"/>
+      <c r="H26" t="s">
         <v>21</v>
       </c>
-      <c r="P26" s="88"/>
-      <c r="Q26" s="11" t="s">
+      <c r="Q26" s="57"/>
+      <c r="R26" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="R26" s="82">
+      <c r="S26" s="85">
         <v>2</v>
       </c>
-      <c r="S26" s="83">
+      <c r="T26" s="47">
         <v>2</v>
       </c>
-      <c r="T26" s="83">
+      <c r="U26" s="5">
+        <v>2</v>
+      </c>
+      <c r="V26" s="5">
         <v>1</v>
       </c>
-      <c r="U26" s="83">
+      <c r="W26" s="5">
         <v>2</v>
       </c>
-      <c r="V26" s="83">
+      <c r="X26" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
-      <c r="B27" s="5">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5">
         <v>6</v>
       </c>
-      <c r="C27" s="5">
+      <c r="D27" s="5">
         <v>5</v>
       </c>
-      <c r="D27" s="5">
+      <c r="E27" s="5">
         <v>4</v>
       </c>
-      <c r="E27" s="5">
+      <c r="F27" s="5">
         <v>3</v>
       </c>
-      <c r="F27" s="5">
+      <c r="G27" s="5">
         <v>2</v>
       </c>
-      <c r="P27" s="88"/>
-      <c r="Q27" s="11" t="s">
+      <c r="Q27" s="57"/>
+      <c r="R27" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="R27" s="82">
+      <c r="S27" s="85">
         <v>1</v>
       </c>
-      <c r="S27" s="83">
+      <c r="T27" s="47">
         <v>1</v>
       </c>
-      <c r="T27" s="83">
+      <c r="U27" s="5">
+        <v>1</v>
+      </c>
+      <c r="V27" s="5">
         <v>0</v>
       </c>
-      <c r="U27" s="83">
+      <c r="W27" s="5">
         <v>1</v>
       </c>
-      <c r="V27" s="83">
+      <c r="X27" s="5">
         <v>1</v>
       </c>
     </row>
@@ -57173,49 +57699,56 @@
       </c>
       <c r="B28" s="13">
         <f>(1-B13/B6)*100</f>
+        <v>-73.27250766392514</v>
+      </c>
+      <c r="C28" s="13">
+        <f>(1-C13/C6)*100</f>
         <v>21.558023007526383</v>
-      </c>
-      <c r="C28" s="22">
-        <f>(1-C13/C6)*100</f>
-        <v>-39.163530186746257</v>
       </c>
       <c r="D28" s="22">
         <f>(1-D13/D6)*100</f>
-        <v>65.780000772405927</v>
+        <v>-39.163530186746257</v>
       </c>
       <c r="E28" s="22">
         <f>(1-E13/E6)*100</f>
+        <v>65.780000772405927</v>
+      </c>
+      <c r="F28" s="22">
+        <f>(1-F13/F6)*100</f>
         <v>78.840281834861457</v>
       </c>
-      <c r="F28" s="23">
-        <f>(1-F13/F6)*100</f>
+      <c r="G28" s="23">
+        <f>(1-G13/G6)*100</f>
         <v>91.9092200461196</v>
       </c>
-      <c r="G28" s="24">
-        <f>AVERAGE(B28:F28)</f>
-        <v>43.784799094833417</v>
-      </c>
       <c r="H28" s="24">
-        <f>AVERAGE(D28:F28)</f>
+        <f>AVERAGE(B28:G28)</f>
+        <v>24.275247968373662</v>
+      </c>
+      <c r="I28" s="24">
+        <f>AVERAGE(E28:G28)</f>
         <v>78.843167551128985</v>
       </c>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="78" t="s">
+      <c r="Q28" s="57"/>
+      <c r="R28" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="R28" s="82">
+      <c r="S28" s="86">
         <v>0</v>
       </c>
-      <c r="S28" s="83">
+      <c r="T28" s="47">
         <v>0</v>
       </c>
-      <c r="T28" s="83">
+      <c r="U28" s="5">
+        <v>0</v>
+      </c>
+      <c r="V28" s="5">
         <v>1</v>
       </c>
-      <c r="U28" s="83">
+      <c r="W28" s="5">
         <v>0</v>
       </c>
-      <c r="V28" s="83">
+      <c r="X28" s="5">
         <v>1</v>
       </c>
     </row>
@@ -57225,49 +57758,56 @@
       </c>
       <c r="B29" s="14">
         <f>(1-B18/B7)*100</f>
+        <v>9.1999683576439946</v>
+      </c>
+      <c r="C29" s="14">
+        <f>(1-C18/C7)*100</f>
         <v>43.916262070477217</v>
-      </c>
-      <c r="C29" s="24">
-        <f>(1-C18/C7)*100</f>
-        <v>86.69270050851712</v>
       </c>
       <c r="D29" s="24">
         <f>(1-D18/D7)*100</f>
-        <v>6.3554526887673601</v>
+        <v>86.69270050851712</v>
       </c>
       <c r="E29" s="24">
         <f>(1-E18/E7)*100</f>
+        <v>6.3554526887673601</v>
+      </c>
+      <c r="F29" s="24">
+        <f>(1-F18/F7)*100</f>
         <v>81.08946309018512</v>
       </c>
-      <c r="F29" s="25">
-        <f>(1-F18/F7)*100</f>
+      <c r="G29" s="25">
+        <f>(1-G18/G7)*100</f>
         <v>27.610787525931947</v>
       </c>
-      <c r="G29" s="24">
-        <f>AVERAGE(B29:F29)</f>
-        <v>49.132933176775758</v>
-      </c>
       <c r="H29" s="24">
-        <f>AVERAGE(D29:F29)</f>
+        <f t="shared" ref="H29:H30" si="7">AVERAGE(B29:G29)</f>
+        <v>42.477439040253792</v>
+      </c>
+      <c r="I29" s="24">
+        <f>AVERAGE(E29:G29)</f>
         <v>38.351901101628137</v>
       </c>
-      <c r="P29" s="88"/>
-      <c r="Q29" s="78" t="s">
+      <c r="Q29" s="57"/>
+      <c r="R29" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="R29" s="82">
+      <c r="S29" s="86">
         <v>1</v>
       </c>
-      <c r="S29" s="83">
+      <c r="T29" s="47">
         <v>1</v>
       </c>
-      <c r="T29" s="83">
+      <c r="U29" s="5">
         <v>1</v>
       </c>
-      <c r="U29" s="83">
+      <c r="V29" s="5">
         <v>1</v>
       </c>
-      <c r="V29" s="83">
+      <c r="W29" s="5">
+        <v>1</v>
+      </c>
+      <c r="X29" s="5">
         <v>1</v>
       </c>
     </row>
@@ -57277,130 +57817,141 @@
       </c>
       <c r="B30" s="15">
         <f>(1-B23/B8)*100</f>
+        <v>39.068486227238431</v>
+      </c>
+      <c r="C30" s="15">
+        <f>(1-C23/C8)*100</f>
         <v>19.320678491680244</v>
-      </c>
-      <c r="C30" s="26">
-        <f>(1-C23/C8)*100</f>
-        <v>64.45947670981613</v>
       </c>
       <c r="D30" s="26">
         <f>(1-D23/D8)*100</f>
-        <v>65.907042859765681</v>
+        <v>64.45947670981613</v>
       </c>
       <c r="E30" s="26">
         <f>(1-E23/E8)*100</f>
+        <v>65.907042859765681</v>
+      </c>
+      <c r="F30" s="26">
+        <f>(1-F23/F8)*100</f>
         <v>92.598923134278849</v>
       </c>
-      <c r="F30" s="27">
-        <f>(1-F23/F8)*100</f>
+      <c r="G30" s="27">
+        <f>(1-G23/G8)*100</f>
         <v>93.395837069654959</v>
       </c>
-      <c r="G30" s="24">
-        <f>AVERAGE(B30:F30)</f>
-        <v>67.136391653039169</v>
-      </c>
       <c r="H30" s="24">
-        <f>AVERAGE(D30:F30)</f>
+        <f t="shared" si="7"/>
+        <v>62.458407415405723</v>
+      </c>
+      <c r="I30" s="24">
+        <f>AVERAGE(E30:G30)</f>
         <v>83.96726768789982</v>
       </c>
-      <c r="P30" s="88"/>
-      <c r="Q30" s="78" t="s">
+      <c r="Q30" s="57"/>
+      <c r="R30" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="R30" s="28">
+      <c r="S30" s="86">
         <v>1</v>
       </c>
-      <c r="S30" s="28">
+      <c r="T30" s="28">
         <v>1</v>
-      </c>
-      <c r="T30" s="28">
-        <v>0</v>
       </c>
       <c r="U30" s="28">
         <v>1</v>
       </c>
       <c r="V30" s="28">
+        <v>0</v>
+      </c>
+      <c r="W30" s="28">
+        <v>1</v>
+      </c>
+      <c r="X30" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="P31" s="64" t="s">
+      <c r="Q31" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="Q31" s="10" t="s">
+      <c r="R31" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="R31" s="80">
+      <c r="S31" s="48">
+        <v>1</v>
+      </c>
+      <c r="T31" s="46">
         <v>2</v>
       </c>
-      <c r="S31" s="80">
+      <c r="U31" s="46">
         <v>2</v>
       </c>
-      <c r="T31" s="80">
+      <c r="V31" s="46">
         <v>2</v>
       </c>
-      <c r="U31" s="80">
+      <c r="W31" s="46">
         <v>2</v>
       </c>
-      <c r="V31" s="80">
+      <c r="X31" s="46">
         <v>2</v>
       </c>
-      <c r="W31" s="77"/>
-      <c r="X31" s="77"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="P32" s="88"/>
-      <c r="Q32" s="11" t="s">
+      <c r="Q32" s="57"/>
+      <c r="R32" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="R32" s="81">
+      <c r="S32" s="85">
         <v>2</v>
       </c>
-      <c r="S32" s="81">
+      <c r="T32" s="47">
         <v>2</v>
       </c>
-      <c r="T32" s="81">
+      <c r="U32" s="47">
         <v>2</v>
       </c>
-      <c r="U32" s="81">
+      <c r="V32" s="47">
         <v>2</v>
       </c>
-      <c r="V32" s="81">
+      <c r="W32" s="47">
         <v>2</v>
       </c>
-      <c r="W32" s="77"/>
-      <c r="X32" s="77"/>
+      <c r="X32" s="47">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="P33" s="88"/>
-      <c r="Q33" s="11" t="s">
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="R33" s="81">
+      <c r="S33" s="85">
+        <v>1</v>
+      </c>
+      <c r="T33" s="47">
         <v>0</v>
       </c>
-      <c r="S33" s="81">
+      <c r="U33" s="47">
         <v>0</v>
       </c>
-      <c r="T33" s="81">
+      <c r="V33" s="47">
         <v>0</v>
       </c>
-      <c r="U33" s="81">
+      <c r="W33" s="47">
         <v>0</v>
       </c>
-      <c r="V33" s="81">
+      <c r="X33" s="47">
         <v>0</v>
       </c>
-      <c r="W33" s="77"/>
-      <c r="X33" s="77"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="53"/>
@@ -57409,135 +57960,142 @@
       <c r="D34" s="53"/>
       <c r="E34" s="53"/>
       <c r="F34" s="53"/>
-      <c r="P34" s="88"/>
-      <c r="Q34" s="78" t="s">
+      <c r="G34" s="53"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="R34" s="82">
+      <c r="S34" s="86">
+        <v>1</v>
+      </c>
+      <c r="T34" s="47">
         <v>0</v>
       </c>
-      <c r="S34" s="82">
+      <c r="U34" s="47">
         <v>0</v>
       </c>
-      <c r="T34" s="82">
+      <c r="V34" s="47">
         <v>0</v>
       </c>
-      <c r="U34" s="75">
+      <c r="W34" s="16">
         <v>1</v>
       </c>
-      <c r="V34" s="75">
+      <c r="X34" s="16">
         <v>1</v>
       </c>
-      <c r="W34" s="77"/>
-      <c r="X34" s="77"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
-      <c r="B35" s="5">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5">
         <v>6</v>
       </c>
-      <c r="C35" s="5">
+      <c r="D35" s="5">
         <v>5</v>
       </c>
-      <c r="D35" s="5">
+      <c r="E35" s="5">
         <v>4</v>
       </c>
-      <c r="E35" s="5">
+      <c r="F35" s="5">
         <v>3</v>
       </c>
-      <c r="F35" s="5">
+      <c r="G35" s="5">
         <v>2</v>
       </c>
-      <c r="P35" s="88"/>
-      <c r="Q35" s="78" t="s">
+      <c r="Q35" s="57"/>
+      <c r="R35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="R35" s="82">
+      <c r="S35" s="86">
         <v>1</v>
       </c>
-      <c r="S35" s="82">
+      <c r="T35" s="47">
         <v>1</v>
       </c>
-      <c r="T35" s="82">
+      <c r="U35" s="47">
         <v>1</v>
       </c>
-      <c r="U35" s="75">
+      <c r="V35" s="47">
         <v>1</v>
       </c>
-      <c r="V35" s="75">
+      <c r="W35" s="16">
         <v>1</v>
       </c>
-      <c r="W35" s="77"/>
-      <c r="X35" s="77"/>
+      <c r="X35" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="13">
-        <f>B6-B13</f>
+      <c r="B36" s="76"/>
+      <c r="C36" s="13">
+        <f>C6-C13</f>
         <v>7.4545089155436013E-3</v>
       </c>
-      <c r="C36" s="13">
-        <f t="shared" ref="C36:F36" si="9">C6-C13</f>
+      <c r="D36" s="13">
+        <f t="shared" ref="D36:G36" si="8">D6-D13</f>
         <v>-4.2269192636012996E-3</v>
       </c>
-      <c r="D36" s="13">
-        <f t="shared" si="9"/>
+      <c r="E36" s="13">
+        <f t="shared" si="8"/>
         <v>1.1230824049562188E-2</v>
       </c>
-      <c r="E36" s="13">
-        <f t="shared" si="9"/>
+      <c r="F36" s="13">
+        <f t="shared" si="8"/>
         <v>2.3967488668858939E-2</v>
       </c>
-      <c r="F36" s="13">
-        <f t="shared" si="9"/>
+      <c r="G36" s="13">
+        <f t="shared" si="8"/>
         <v>4.7464133240282487E-2</v>
       </c>
-      <c r="P36" s="63"/>
-      <c r="Q36" s="79" t="s">
+      <c r="Q36" s="58"/>
+      <c r="R36" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="R36" s="85">
+      <c r="S36" s="28">
         <v>0</v>
       </c>
-      <c r="S36" s="66">
+      <c r="T36" s="49">
         <v>0</v>
       </c>
-      <c r="T36" s="66">
+      <c r="U36" s="42">
         <v>0</v>
       </c>
-      <c r="U36" s="66">
+      <c r="V36" s="42">
         <v>0</v>
       </c>
-      <c r="V36" s="66">
+      <c r="W36" s="42">
         <v>0</v>
       </c>
-      <c r="W36" s="77"/>
-      <c r="X36" s="77"/>
+      <c r="X36" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="14">
-        <f>B7-B18</f>
+      <c r="B37" s="77"/>
+      <c r="C37" s="14">
+        <f>C7-C18</f>
         <v>1.88092850148678E-2</v>
       </c>
-      <c r="C37" s="14">
-        <f t="shared" ref="C37:F37" si="10">C7-C18</f>
+      <c r="D37" s="14">
+        <f t="shared" ref="D37:G37" si="9">D7-D18</f>
         <v>0.10167833324521751</v>
       </c>
-      <c r="D37" s="14">
-        <f t="shared" si="10"/>
+      <c r="E37" s="14">
+        <f t="shared" si="9"/>
         <v>1.6024820506573001E-3</v>
       </c>
-      <c r="E37" s="14">
-        <f t="shared" si="10"/>
+      <c r="F37" s="14">
+        <f t="shared" si="9"/>
         <v>7.8699616715312004E-2</v>
       </c>
-      <c r="F37" s="14">
-        <f t="shared" si="10"/>
+      <c r="G37" s="14">
+        <f t="shared" si="9"/>
         <v>5.348613485694001E-3</v>
       </c>
     </row>
@@ -57545,54 +58103,56 @@
       <c r="A38" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="15">
-        <f>B8-B23</f>
+      <c r="B38" s="78"/>
+      <c r="C38" s="15">
+        <f>C8-C23</f>
         <v>2.9212355613707996E-2</v>
       </c>
-      <c r="C38" s="15">
-        <f t="shared" ref="C38:F38" si="11">C8-C23</f>
+      <c r="D38" s="15">
+        <f t="shared" ref="D38:G38" si="10">D8-D23</f>
         <v>0.152894031476974</v>
       </c>
-      <c r="D38" s="15">
-        <f t="shared" si="11"/>
+      <c r="E38" s="15">
+        <f t="shared" si="10"/>
         <v>0.12485095113515851</v>
       </c>
-      <c r="E38" s="15">
-        <f t="shared" si="11"/>
+      <c r="F38" s="15">
+        <f t="shared" si="10"/>
         <v>0.28817087784409529</v>
       </c>
-      <c r="F38" s="15">
-        <f t="shared" si="11"/>
+      <c r="G38" s="15">
+        <f t="shared" si="10"/>
         <v>0.45690924301743507</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P31:P36"/>
-    <mergeCell ref="P19:P24"/>
-    <mergeCell ref="P25:P30"/>
-    <mergeCell ref="W11:W13"/>
-    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="Q8:Q10"/>
+    <mergeCell ref="Y8:Y10"/>
+    <mergeCell ref="Z8:Z10"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="A3:G4"/>
+    <mergeCell ref="Q5:Q7"/>
+    <mergeCell ref="Y5:Y7"/>
+    <mergeCell ref="Z5:Z7"/>
+    <mergeCell ref="S3:X3"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A25:F26"/>
-    <mergeCell ref="A33:F34"/>
-    <mergeCell ref="R17:V17"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="W5:W7"/>
-    <mergeCell ref="X5:X7"/>
-    <mergeCell ref="P8:P10"/>
-    <mergeCell ref="W8:W10"/>
-    <mergeCell ref="X8:X10"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="A25:G26"/>
+    <mergeCell ref="A33:G34"/>
+    <mergeCell ref="Q31:Q36"/>
+    <mergeCell ref="Q19:Q24"/>
+    <mergeCell ref="Q25:Q30"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="Z11:Z13"/>
+    <mergeCell ref="S17:X17"/>
   </mergeCells>
-  <conditionalFormatting sqref="B10:B12">
+  <conditionalFormatting sqref="C10:C12">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -57604,7 +58164,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C12">
+  <conditionalFormatting sqref="D10:D12">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -57616,7 +58176,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D12">
+  <conditionalFormatting sqref="E10:E12">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -57628,7 +58188,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E12">
+  <conditionalFormatting sqref="F10:F12">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -57640,7 +58200,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10:F12">
+  <conditionalFormatting sqref="G10:G12">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -57652,7 +58212,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:B17">
+  <conditionalFormatting sqref="C15:C17">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -57664,7 +58224,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C17">
+  <conditionalFormatting sqref="D15:D17">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -57676,7 +58236,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D17">
+  <conditionalFormatting sqref="E15:E17">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -57688,7 +58248,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15:E17">
+  <conditionalFormatting sqref="F15:F17">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -57700,7 +58260,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15:F17">
+  <conditionalFormatting sqref="G15:G17">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -57712,7 +58272,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:B22">
+  <conditionalFormatting sqref="C20:C22">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -57724,7 +58284,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C22">
+  <conditionalFormatting sqref="D20:D22">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -57736,7 +58296,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D22">
+  <conditionalFormatting sqref="E20:E22">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -57748,7 +58308,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E22">
+  <conditionalFormatting sqref="F20:F22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -57760,7 +58320,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F22">
+  <conditionalFormatting sqref="G20:G22">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -57779,1133 +58339,1280 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73682F7E-12ED-7843-B59C-8ED16916954A}">
-  <dimension ref="A3:Z39"/>
+  <dimension ref="A3:AC39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17:V36"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="R3" s="51" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="T3" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="P4" s="45" t="s">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="Q4" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="45" t="s">
+      <c r="R4" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="46">
+      <c r="S4" s="36">
+        <v>7</v>
+      </c>
+      <c r="T4" s="37">
         <v>6</v>
       </c>
-      <c r="S4" s="46">
+      <c r="U4" s="37">
         <v>5</v>
       </c>
-      <c r="T4" s="46">
+      <c r="V4" s="37">
         <v>4</v>
       </c>
-      <c r="U4" s="46">
+      <c r="W4" s="37">
         <v>3</v>
       </c>
-      <c r="V4" s="46">
+      <c r="X4" s="37">
         <v>2</v>
       </c>
-      <c r="W4" s="28" t="s">
+      <c r="Y4" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="X4" s="28" t="s">
+      <c r="Z4" s="28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="19" x14ac:dyDescent="0.25">
-      <c r="B5">
+    <row r="5" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="D5" s="5">
         <v>5</v>
       </c>
-      <c r="D5">
+      <c r="E5" s="5">
         <v>4</v>
       </c>
-      <c r="E5">
+      <c r="F5" s="5">
         <v>3</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="104">
         <v>2</v>
       </c>
-      <c r="P5" s="69" t="s">
+      <c r="Q5" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="R5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="20">
+      <c r="S5" s="80">
         <f>B6</f>
+        <v>2.9600566253066E-2</v>
+      </c>
+      <c r="T5" s="20">
+        <f>C6</f>
         <v>2.8639307245612099E-2</v>
       </c>
-      <c r="S5" s="20">
-        <f t="shared" ref="S5:V5" si="0">C6</f>
+      <c r="U5" s="20">
+        <f>D6</f>
         <v>1.2322018854320001E-2</v>
       </c>
-      <c r="T5" s="20">
-        <f t="shared" si="0"/>
+      <c r="V5" s="20">
+        <f>E6</f>
         <v>1.3290189206600101E-2</v>
       </c>
-      <c r="U5" s="20">
-        <f t="shared" si="0"/>
+      <c r="W5" s="20">
+        <f>F6</f>
         <v>1.6699342057108799E-2</v>
       </c>
-      <c r="V5" s="17">
-        <f t="shared" si="0"/>
+      <c r="X5" s="17">
+        <f>G6</f>
         <v>1.90052222460508E-2</v>
       </c>
-      <c r="W5" s="57">
-        <f>G28</f>
-        <v>21.741715354379732</v>
-      </c>
-      <c r="X5" s="60">
-        <f>AVERAGE(R7:V7)</f>
-        <v>4.4044703245162782E-3</v>
-      </c>
-      <c r="Y5">
-        <f>X5/Z5*100</f>
-        <v>1.2027854062457342</v>
-      </c>
-      <c r="Z5" s="2">
+      <c r="Y5" s="60">
+        <f>H28</f>
+        <v>16.767089458473063</v>
+      </c>
+      <c r="Z5" s="63">
+        <f>AVERAGE(S7:X7)</f>
+        <v>3.2704863126078987E-3</v>
+      </c>
+      <c r="AA5" s="24">
+        <f>Z5/AB5*100</f>
+        <v>0.8931137953718018</v>
+      </c>
+      <c r="AB5" s="2">
         <v>0.36618920562596402</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="103">
+        <v>2.9600566253066E-2</v>
+      </c>
+      <c r="C6" s="103">
         <v>2.8639307245612099E-2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="103">
         <v>1.2322018854320001E-2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="103">
         <v>1.3290189206600101E-2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="103">
         <v>1.6699342057108799E-2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="103">
         <v>1.90052222460508E-2</v>
       </c>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="69"/>
+      <c r="R6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="R6" s="7">
+      <c r="S6" s="81">
         <f>B13</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="T6" s="7">
+        <f>C13</f>
         <v>2.29938253760337E-2</v>
       </c>
-      <c r="S6" s="7">
-        <f t="shared" ref="S6:V6" si="1">C13</f>
+      <c r="U6" s="7">
+        <f>D13</f>
         <v>1.3558449223637499E-2</v>
       </c>
-      <c r="T6" s="7">
-        <f t="shared" si="1"/>
+      <c r="V6" s="7">
+        <f>E13</f>
         <v>1.2607739306986301E-2</v>
       </c>
-      <c r="U6" s="7">
-        <f t="shared" si="1"/>
+      <c r="W6" s="7">
+        <f>F13</f>
         <v>1.0078589431941501E-2</v>
       </c>
-      <c r="V6" s="18">
-        <f t="shared" si="1"/>
+      <c r="X6" s="18">
+        <f>G13</f>
         <v>8.6951246485114098E-3</v>
       </c>
-      <c r="W6" s="58"/>
-      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="24"/>
     </row>
-    <row r="7" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="103">
+        <v>2.6333356276154501E-2</v>
+      </c>
+      <c r="C7" s="103">
         <v>4.7536794096231398E-2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="103">
         <v>9.3563191592693301E-2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="103">
         <v>7.6258787885308196E-3</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="103">
         <v>5.8908024802803898E-3</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="103">
         <v>5.3341863676905597E-3</v>
       </c>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="12" t="s">
+      <c r="Q7" s="70"/>
+      <c r="R7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="R7" s="21">
-        <f>R5-R6</f>
+      <c r="S7" s="21">
+        <f>S5-S6</f>
+        <v>-2.3994337469340002E-3</v>
+      </c>
+      <c r="T7" s="21">
+        <f>T5-T6</f>
         <v>5.6454818695783997E-3</v>
       </c>
-      <c r="S7" s="21">
-        <f t="shared" ref="S7:V7" si="2">S5-S6</f>
+      <c r="U7" s="21">
+        <f t="shared" ref="U7:X7" si="0">U5-U6</f>
         <v>-1.2364303693174986E-3</v>
       </c>
-      <c r="T7" s="21">
-        <f t="shared" si="2"/>
+      <c r="V7" s="21">
+        <f t="shared" si="0"/>
         <v>6.8244989961380002E-4</v>
       </c>
-      <c r="U7" s="21">
-        <f t="shared" si="2"/>
+      <c r="W7" s="21">
+        <f t="shared" si="0"/>
         <v>6.6207526251672987E-3</v>
       </c>
-      <c r="V7" s="21">
-        <f t="shared" si="2"/>
+      <c r="X7" s="21">
+        <f t="shared" si="0"/>
         <v>1.031009759753939E-2</v>
       </c>
-      <c r="W7" s="59"/>
-      <c r="X7" s="62"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="24"/>
     </row>
-    <row r="8" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="103">
+        <v>0.28841677308082497</v>
+      </c>
+      <c r="C8" s="103">
         <v>0.27688288688659601</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="103">
         <v>1.17601323127746</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="103">
         <v>1.15297639369964</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="103">
         <v>0.16403807699680301</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="103">
         <v>0.13300071656703899</v>
       </c>
-      <c r="P8" s="69" t="s">
+      <c r="Q8" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="Q8" s="10" t="s">
+      <c r="R8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="R8" s="20">
+      <c r="S8" s="80">
         <f>B7</f>
+        <v>2.6333356276154501E-2</v>
+      </c>
+      <c r="T8" s="20">
+        <f>C7</f>
         <v>4.7536794096231398E-2</v>
       </c>
-      <c r="S8" s="20">
-        <f>C7</f>
+      <c r="U8" s="20">
+        <f>D7</f>
         <v>9.3563191592693301E-2</v>
       </c>
-      <c r="T8" s="20">
-        <f>D7</f>
+      <c r="V8" s="20">
+        <f>E7</f>
         <v>7.6258787885308196E-3</v>
       </c>
-      <c r="U8" s="20">
-        <f>E7</f>
+      <c r="W8" s="20">
+        <f>F7</f>
         <v>5.8908024802803898E-3</v>
       </c>
-      <c r="V8" s="17">
-        <f>F7</f>
+      <c r="X8" s="17">
+        <f>G7</f>
         <v>5.3341863676905597E-3</v>
       </c>
-      <c r="W8" s="57">
-        <f>G29</f>
-        <v>18.664356743648362</v>
-      </c>
-      <c r="X8" s="60">
-        <f>AVERAGE(R10:V10)</f>
-        <v>2.4227098934352397E-2</v>
-      </c>
-      <c r="Y8">
-        <f>X8/Z8*100</f>
-        <v>7.7112132654122147</v>
-      </c>
-      <c r="Z8" s="2">
+      <c r="Y8" s="60">
+        <f>H29</f>
+        <v>16.397526261778928</v>
+      </c>
+      <c r="Z8" s="63">
+        <f>AVERAGE(S10:X10)</f>
+        <v>2.0411475157986081E-2</v>
+      </c>
+      <c r="AA8" s="24">
+        <f>Z8/AB8*100</f>
+        <v>6.4967431070220076</v>
+      </c>
+      <c r="AB8" s="2">
         <v>0.31418011797210099</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="P9" s="70"/>
-      <c r="Q9" s="11" t="s">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Q9" s="69"/>
+      <c r="R9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="7">
+      <c r="S9" s="7">
         <f>B18</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="T9" s="7">
+        <f>C18</f>
         <v>1.1410217732191001E-2</v>
       </c>
-      <c r="S9" s="7">
-        <f>C18</f>
+      <c r="U9" s="7">
+        <f>D18</f>
         <v>3.62224457785487E-3</v>
       </c>
-      <c r="T9" s="7">
-        <f>D18</f>
+      <c r="V9" s="7">
+        <f>E18</f>
         <v>9.2684952542185697E-3</v>
       </c>
-      <c r="U9" s="7">
-        <f>E18</f>
+      <c r="W9" s="7">
+        <f>F18</f>
         <v>8.3763077855110099E-3</v>
       </c>
-      <c r="V9" s="18">
-        <f>F18</f>
+      <c r="X9" s="18">
+        <f>G18</f>
         <v>6.1380933038890301E-3</v>
       </c>
-      <c r="W9" s="58"/>
-      <c r="X9" s="61"/>
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="24"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="102">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="C10" s="93">
         <v>2.29938253760337E-2</v>
       </c>
-      <c r="C10" s="36">
+      <c r="D10" s="94">
         <v>1.3558449223637499E-2</v>
       </c>
-      <c r="D10" s="36">
+      <c r="E10" s="94">
         <v>1.52305280789732E-2</v>
       </c>
-      <c r="E10" s="36">
+      <c r="F10" s="94">
         <v>1.0078589431941501E-2</v>
       </c>
-      <c r="F10" s="37">
+      <c r="G10" s="95">
         <v>1.0224312543868999E-2</v>
       </c>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="12" t="s">
+      <c r="Q10" s="70"/>
+      <c r="R10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="R10" s="21">
-        <f>R8-R9</f>
+      <c r="S10" s="21">
+        <f>S8-S9</f>
+        <v>1.3333562761544994E-3</v>
+      </c>
+      <c r="T10" s="21">
+        <f>T8-T9</f>
         <v>3.6126576364040396E-2</v>
       </c>
-      <c r="S10" s="21">
-        <f t="shared" ref="S10:V10" si="3">S8-S9</f>
+      <c r="U10" s="21">
+        <f t="shared" ref="U10:X10" si="1">U8-U9</f>
         <v>8.9940947014838429E-2</v>
       </c>
-      <c r="T10" s="21">
-        <f t="shared" si="3"/>
+      <c r="V10" s="21">
+        <f t="shared" si="1"/>
         <v>-1.64261646568775E-3</v>
       </c>
-      <c r="U10" s="21">
-        <f t="shared" si="3"/>
+      <c r="W10" s="21">
+        <f t="shared" si="1"/>
         <v>-2.4855053052306201E-3</v>
       </c>
-      <c r="V10" s="21">
-        <f t="shared" si="3"/>
+      <c r="X10" s="21">
+        <f t="shared" si="1"/>
         <v>-8.0390693619847037E-4</v>
       </c>
-      <c r="W10" s="59"/>
-      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="24"/>
     </row>
-    <row r="11" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="55"/>
-      <c r="B11" s="38">
+      <c r="B11" s="92">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C11" s="96">
         <v>2.5421151891350701E-2</v>
       </c>
-      <c r="C11" s="39">
+      <c r="D11" s="97">
         <v>2.1966513246297802E-2</v>
       </c>
-      <c r="D11" s="39">
+      <c r="E11" s="97">
         <v>2.2185113281011502E-2</v>
       </c>
-      <c r="E11" s="39">
+      <c r="F11" s="97">
         <v>2.9251392930745999E-2</v>
       </c>
-      <c r="F11" s="40">
+      <c r="G11" s="98">
         <v>8.6951246485114098E-3</v>
       </c>
-      <c r="P11" s="69" t="s">
+      <c r="Q11" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="R11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="R11" s="7">
+      <c r="S11" s="80">
         <f>B8</f>
+        <v>0.28841677308082497</v>
+      </c>
+      <c r="T11" s="7">
+        <f>C8</f>
         <v>0.27688288688659601</v>
       </c>
-      <c r="S11" s="7">
-        <f>C8</f>
+      <c r="U11" s="7">
+        <f>D8</f>
         <v>1.17601323127746</v>
       </c>
-      <c r="T11" s="7">
-        <f>D8</f>
+      <c r="V11" s="7">
+        <f>E8</f>
         <v>1.15297639369964</v>
       </c>
-      <c r="U11" s="7">
-        <f>E8</f>
+      <c r="W11" s="7">
+        <f>F8</f>
         <v>0.16403807699680301</v>
       </c>
-      <c r="V11" s="18">
-        <f>F8</f>
+      <c r="X11" s="18">
+        <f>G8</f>
         <v>0.13300071656703899</v>
       </c>
-      <c r="W11" s="58">
-        <f>G30</f>
-        <v>69.669439862524015</v>
-      </c>
-      <c r="X11" s="61">
-        <f>AVERAGE(R13:V13)</f>
-        <v>0.48704375475644845</v>
-      </c>
-      <c r="Y11">
-        <f>X11/Z11*100</f>
-        <v>28.184830268667323</v>
-      </c>
-      <c r="Z11" s="2">
+      <c r="Y11" s="61">
+        <f>H30</f>
+        <v>60.277846841417698</v>
+      </c>
+      <c r="Z11" s="64">
+        <f>AVERAGE(S13:X13)</f>
+        <v>0.41227259114384451</v>
+      </c>
+      <c r="AA11" s="24">
+        <f>Z11/AB11*100</f>
+        <v>23.857883182638407</v>
+      </c>
+      <c r="AB11" s="2">
         <v>1.72803508168679</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="56"/>
-      <c r="B12" s="41">
+      <c r="B12" s="91">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C12" s="99">
         <v>2.8426982462406099E-2</v>
       </c>
-      <c r="C12" s="42">
+      <c r="D12" s="100">
         <v>1.46854994818568E-2</v>
       </c>
-      <c r="D12" s="42">
+      <c r="E12" s="100">
         <v>1.2607739306986301E-2</v>
       </c>
-      <c r="E12" s="42">
+      <c r="F12" s="100">
         <v>1.1736489832401199E-2</v>
       </c>
-      <c r="F12" s="43">
+      <c r="G12" s="101">
         <v>1.4143900945782601E-2</v>
       </c>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="69"/>
+      <c r="R12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="R12" s="7">
+      <c r="S12" s="81">
         <f>B23</f>
+        <v>0.25</v>
+      </c>
+      <c r="T12" s="7">
+        <f>C23</f>
         <v>0.13427063822746199</v>
       </c>
-      <c r="S12" s="7">
-        <f>C23</f>
+      <c r="U12" s="7">
+        <f>D23</f>
         <v>8.5208155214786502E-2</v>
       </c>
-      <c r="T12" s="7">
-        <f>D23</f>
+      <c r="V12" s="7">
+        <f>E23</f>
         <v>0.117943622171878</v>
       </c>
-      <c r="U12" s="7">
-        <f>E23</f>
+      <c r="W12" s="7">
+        <f>F23</f>
         <v>8.6199156939983299E-2</v>
       </c>
-      <c r="V12" s="18">
-        <f>F23</f>
+      <c r="X12" s="18">
+        <f>G23</f>
         <v>4.4070959091186503E-2</v>
       </c>
-      <c r="W12" s="58"/>
-      <c r="X12" s="61"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="64"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <f>MIN(B10:B12)</f>
-        <v>2.29938253760337E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="C13" s="6">
         <f>MIN(C10:C12)</f>
-        <v>1.3558449223637499E-2</v>
+        <v>2.29938253760337E-2</v>
       </c>
       <c r="D13" s="6">
         <f>MIN(D10:D12)</f>
-        <v>1.2607739306986301E-2</v>
+        <v>1.3558449223637499E-2</v>
       </c>
       <c r="E13" s="6">
         <f>MIN(E10:E12)</f>
-        <v>1.0078589431941501E-2</v>
+        <v>1.2607739306986301E-2</v>
       </c>
       <c r="F13" s="6">
         <f>MIN(F10:F12)</f>
+        <v>1.0078589431941501E-2</v>
+      </c>
+      <c r="G13" s="6">
+        <f>MIN(G10:G12)</f>
         <v>8.6951246485114098E-3</v>
       </c>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="12" t="s">
+      <c r="Q13" s="70"/>
+      <c r="R13" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="R13" s="21">
-        <f>R11-R12</f>
+      <c r="S13" s="21">
+        <f>S11-S12</f>
+        <v>3.8416773080824973E-2</v>
+      </c>
+      <c r="T13" s="21">
+        <f>T11-T12</f>
         <v>0.14261224865913402</v>
       </c>
-      <c r="S13" s="21">
-        <f t="shared" ref="S13:V13" si="4">S11-S12</f>
+      <c r="U13" s="21">
+        <f t="shared" ref="U13:X13" si="2">U11-U12</f>
         <v>1.0908050760626735</v>
       </c>
-      <c r="T13" s="21">
-        <f t="shared" si="4"/>
+      <c r="V13" s="21">
+        <f t="shared" si="2"/>
         <v>1.0350327715277621</v>
       </c>
-      <c r="U13" s="21">
-        <f t="shared" si="4"/>
+      <c r="W13" s="21">
+        <f t="shared" si="2"/>
         <v>7.7838920056819708E-2</v>
       </c>
-      <c r="V13" s="21">
-        <f t="shared" si="4"/>
+      <c r="X13" s="21">
+        <f t="shared" si="2"/>
         <v>8.8929757475852494E-2</v>
       </c>
-      <c r="W13" s="59"/>
-      <c r="X13" s="62"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="65"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
-      <c r="B14" s="6">
-        <f>STDEV(B10:B12)</f>
-        <v>2.7217067977971356E-3</v>
-      </c>
+      <c r="B14" s="5"/>
       <c r="C14" s="6">
         <f>STDEV(C10:C12)</f>
-        <v>4.5639702075365293E-3</v>
+        <v>2.7217067977971356E-3</v>
       </c>
       <c r="D14" s="6">
         <f>STDEV(D10:D12)</f>
-        <v>4.9492654086777743E-3</v>
+        <v>4.5639702075365293E-3</v>
       </c>
       <c r="E14" s="6">
         <f>STDEV(E10:E12)</f>
-        <v>1.0623220308095708E-2</v>
+        <v>4.9492654086777743E-3</v>
       </c>
       <c r="F14" s="6">
         <f>STDEV(F10:F12)</f>
+        <v>1.0623220308095708E-2</v>
+      </c>
+      <c r="G14" s="6">
+        <f>STDEV(G10:G12)</f>
         <v>2.810419660164301E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="92">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="C15" s="32">
         <v>2.1217688918113702E-2</v>
       </c>
-      <c r="C15" s="8">
+      <c r="D15" s="8">
         <v>6.9587379693984899E-3</v>
       </c>
-      <c r="D15" s="8">
+      <c r="E15" s="8">
         <v>1.41210285946726E-2</v>
       </c>
-      <c r="E15" s="8">
+      <c r="F15" s="8">
         <v>1.2080861255526499E-2</v>
       </c>
-      <c r="F15" s="33">
+      <c r="G15" s="33">
         <v>1.1015829630196001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="55"/>
-      <c r="B16" s="30">
+      <c r="B16" s="92">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C16" s="30">
         <v>1.1410217732191001E-2</v>
       </c>
-      <c r="C16" s="6">
+      <c r="D16" s="6">
         <v>3.62224457785487E-3</v>
       </c>
-      <c r="D16" s="6">
+      <c r="E16" s="6">
         <v>1.3988374732434699E-2</v>
       </c>
-      <c r="E16" s="6">
+      <c r="F16" s="6">
         <v>8.3763077855110099E-3</v>
       </c>
-      <c r="F16" s="44">
+      <c r="G16" s="35">
         <v>6.1380933038890301E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="56"/>
-      <c r="B17" s="29">
+      <c r="B17" s="91">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C17" s="29">
         <v>1.33371548727154E-2</v>
       </c>
-      <c r="C17" s="9">
+      <c r="D17" s="9">
         <v>1.0456029325723599E-2</v>
       </c>
-      <c r="D17" s="9">
+      <c r="E17" s="9">
         <v>9.2684952542185697E-3</v>
       </c>
-      <c r="E17" s="9">
+      <c r="F17" s="9">
         <v>1.4217165298759901E-2</v>
       </c>
-      <c r="F17" s="34">
+      <c r="G17" s="34">
         <v>7.00748385861516E-3</v>
       </c>
-      <c r="R17" s="53" t="s">
+      <c r="T17" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S17" s="53"/>
-      <c r="T17" s="53"/>
       <c r="U17" s="53"/>
       <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="105">
         <f>MIN(B15:B17)</f>
-        <v>1.1410217732191001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C18" s="6">
         <f>MIN(C15:C17)</f>
-        <v>3.62224457785487E-3</v>
+        <v>1.1410217732191001E-2</v>
       </c>
       <c r="D18" s="6">
         <f>MIN(D15:D17)</f>
-        <v>9.2684952542185697E-3</v>
+        <v>3.62224457785487E-3</v>
       </c>
       <c r="E18" s="6">
         <f>MIN(E15:E17)</f>
-        <v>8.3763077855110099E-3</v>
+        <v>9.2684952542185697E-3</v>
       </c>
       <c r="F18" s="6">
         <f>MIN(F15:F17)</f>
+        <v>8.3763077855110099E-3</v>
+      </c>
+      <c r="G18" s="6">
+        <f>MIN(G15:G17)</f>
         <v>6.1380933038890301E-3</v>
       </c>
-      <c r="P18" s="45" t="s">
+      <c r="Q18" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="Q18" s="76" t="s">
+      <c r="R18" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="R18" s="83">
+      <c r="S18" s="45">
+        <v>7</v>
+      </c>
+      <c r="T18" s="5">
         <v>6</v>
       </c>
-      <c r="S18" s="83">
+      <c r="U18" s="5">
         <v>5</v>
       </c>
-      <c r="T18" s="83">
+      <c r="V18" s="5">
         <v>4</v>
       </c>
-      <c r="U18" s="83">
+      <c r="W18" s="5">
         <v>3</v>
       </c>
-      <c r="V18" s="83">
+      <c r="X18" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
-      <c r="B19" s="6">
-        <f>STDEV(B15:B17)</f>
-        <v>5.1961908267325703E-3</v>
-      </c>
+      <c r="B19" s="104"/>
       <c r="C19" s="6">
         <f>STDEV(C15:C17)</f>
-        <v>3.4172076554560326E-3</v>
+        <v>5.1961908267325703E-3</v>
       </c>
       <c r="D19" s="6">
         <f>STDEV(D15:D17)</f>
-        <v>2.7641134551084773E-3</v>
+        <v>3.4172076554560326E-3</v>
       </c>
       <c r="E19" s="6">
         <f>STDEV(E15:E17)</f>
-        <v>2.9553095683141559E-3</v>
+        <v>2.7641134551084773E-3</v>
       </c>
       <c r="F19" s="6">
         <f>STDEV(F15:F17)</f>
+        <v>2.9553095683141559E-3</v>
+      </c>
+      <c r="G19" s="6">
+        <f>STDEV(G15:G17)</f>
         <v>2.6017618207082819E-3</v>
       </c>
-      <c r="P19" s="72" t="s">
+      <c r="Q19" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="Q19" s="10" t="s">
+      <c r="R19" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="R19" s="80">
+      <c r="S19" s="71">
         <v>1</v>
       </c>
-      <c r="S19" s="80">
+      <c r="T19" s="46">
         <v>1</v>
       </c>
-      <c r="T19" s="80">
+      <c r="U19" s="46">
         <v>1</v>
       </c>
-      <c r="U19" s="80">
+      <c r="V19" s="46">
+        <v>1</v>
+      </c>
+      <c r="W19" s="46">
         <v>0</v>
       </c>
-      <c r="V19" s="80">
+      <c r="X19" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="92">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="C20" s="8">
         <v>0.13427063822746199</v>
       </c>
-      <c r="C20" s="8">
+      <c r="D20" s="8">
         <v>0.122383214533329</v>
       </c>
-      <c r="D20" s="8">
+      <c r="E20" s="8">
         <v>0.17793299257755199</v>
       </c>
-      <c r="E20" s="20">
+      <c r="F20" s="20">
         <v>8.6199156939983299E-2</v>
       </c>
-      <c r="F20" s="17">
+      <c r="G20" s="17">
         <v>7.4978642165660803E-2</v>
       </c>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="11" t="s">
+      <c r="Q20" s="51"/>
+      <c r="R20" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="R20" s="81">
+      <c r="S20" s="72">
+        <v>2</v>
+      </c>
+      <c r="T20" s="47">
         <v>1</v>
       </c>
-      <c r="S20" s="81">
+      <c r="U20" s="47">
         <v>1</v>
       </c>
-      <c r="T20" s="81">
+      <c r="V20" s="47">
         <v>1</v>
       </c>
-      <c r="U20" s="81">
+      <c r="W20" s="47">
         <v>1</v>
       </c>
-      <c r="V20" s="81">
+      <c r="X20" s="47">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="55"/>
-      <c r="B21" s="6">
+      <c r="B21" s="106">
+        <v>0.25</v>
+      </c>
+      <c r="C21" s="6">
         <v>0.256383836269378</v>
       </c>
-      <c r="C21" s="6">
+      <c r="D21" s="6">
         <v>0.100355237722396</v>
       </c>
-      <c r="D21" s="6">
+      <c r="E21" s="6">
         <v>0.130391165614128</v>
       </c>
-      <c r="E21" s="7">
+      <c r="F21" s="7">
         <v>0.13391269743442499</v>
       </c>
-      <c r="F21" s="18">
+      <c r="G21" s="18">
         <v>4.4070959091186503E-2</v>
       </c>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="11" t="s">
+      <c r="Q21" s="51"/>
+      <c r="R21" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="R21" s="81">
+      <c r="S21" s="83">
+        <v>1</v>
+      </c>
+      <c r="T21" s="47">
         <v>0</v>
       </c>
-      <c r="S21" s="81">
+      <c r="U21" s="47">
         <v>0</v>
       </c>
-      <c r="T21" s="81">
+      <c r="V21" s="47">
         <v>0</v>
       </c>
-      <c r="U21" s="81">
+      <c r="W21" s="47">
         <v>1</v>
       </c>
-      <c r="V21" s="81">
+      <c r="X21" s="47">
         <v>0</v>
       </c>
+      <c r="AC21" s="2"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="56"/>
-      <c r="B22" s="9">
+      <c r="B22" s="107">
+        <v>0.373</v>
+      </c>
+      <c r="C22" s="9">
         <v>0.17078563570976199</v>
       </c>
-      <c r="C22" s="9">
+      <c r="D22" s="9">
         <v>8.5208155214786502E-2</v>
       </c>
-      <c r="D22" s="21">
+      <c r="E22" s="21">
         <v>0.117943622171878</v>
       </c>
-      <c r="E22" s="21">
+      <c r="F22" s="21">
         <v>9.4709910452365806E-2</v>
       </c>
-      <c r="F22" s="19">
+      <c r="G22" s="19">
         <v>7.0034898817539201E-2</v>
       </c>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="78" t="s">
+      <c r="Q22" s="51"/>
+      <c r="R22" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="R22" s="82">
+      <c r="S22" s="83">
         <v>1</v>
       </c>
-      <c r="S22" s="75">
+      <c r="T22" s="47">
         <v>1</v>
       </c>
-      <c r="T22" s="75">
+      <c r="U22" s="16">
         <v>1</v>
       </c>
-      <c r="U22" s="75">
+      <c r="V22" s="16">
         <v>1</v>
       </c>
-      <c r="V22" s="75">
+      <c r="W22" s="16">
         <v>1</v>
       </c>
+      <c r="X22" s="16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="108">
         <f>MIN(B20:B22)</f>
+        <v>0.25</v>
+      </c>
+      <c r="C23" s="6">
+        <f>MIN(C20:C22)</f>
         <v>0.13427063822746199</v>
       </c>
-      <c r="C23" s="6">
-        <f t="shared" ref="C23:F23" si="5">MIN(C20:C22)</f>
+      <c r="D23" s="6">
+        <f t="shared" ref="D23:G23" si="3">MIN(D20:D22)</f>
         <v>8.5208155214786502E-2</v>
       </c>
-      <c r="D23" s="6">
-        <f t="shared" si="5"/>
+      <c r="E23" s="6">
+        <f t="shared" si="3"/>
         <v>0.117943622171878</v>
       </c>
-      <c r="E23" s="6">
-        <f t="shared" si="5"/>
+      <c r="F23" s="6">
+        <f t="shared" si="3"/>
         <v>8.6199156939983299E-2</v>
       </c>
-      <c r="F23" s="6">
-        <f t="shared" si="5"/>
+      <c r="G23" s="6">
+        <f t="shared" si="3"/>
         <v>4.4070959091186503E-2</v>
       </c>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="78" t="s">
+      <c r="Q23" s="51"/>
+      <c r="R23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="R23" s="82">
+      <c r="S23" s="83">
         <v>1</v>
       </c>
-      <c r="S23" s="75">
+      <c r="T23" s="47">
         <v>1</v>
       </c>
-      <c r="T23" s="75">
+      <c r="U23" s="16">
         <v>1</v>
       </c>
-      <c r="U23" s="75">
+      <c r="V23" s="16">
         <v>1</v>
       </c>
-      <c r="V23" s="75">
+      <c r="W23" s="16">
         <v>1</v>
       </c>
+      <c r="X23" s="16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
-      <c r="B24" s="6">
-        <f>STDEV(B20:B22)</f>
-        <v>6.2679116825570064E-2</v>
-      </c>
+      <c r="B24" s="16"/>
       <c r="C24" s="6">
         <f>STDEV(C20:C22)</f>
+        <v>6.2679116825570064E-2</v>
+      </c>
+      <c r="D24" s="6">
+        <f>STDEV(D20:D22)</f>
         <v>1.869336293185575E-2</v>
       </c>
-      <c r="D24" s="6">
-        <f t="shared" ref="D24:F24" si="6">STDEV(D20:D22)</f>
+      <c r="E24" s="6">
+        <f t="shared" ref="E24:G24" si="4">STDEV(E20:E22)</f>
         <v>3.165936199198173E-2</v>
       </c>
-      <c r="E24" s="6">
-        <f t="shared" si="6"/>
+      <c r="F24" s="6">
+        <f t="shared" si="4"/>
         <v>2.5448881373660841E-2</v>
       </c>
-      <c r="F24" s="6">
-        <f t="shared" si="6"/>
+      <c r="G24" s="6">
+        <f t="shared" si="4"/>
         <v>1.6602467875981186E-2</v>
       </c>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="78" t="s">
+      <c r="Q24" s="67"/>
+      <c r="R24" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="R24" s="66">
+      <c r="S24" s="83">
         <v>0</v>
       </c>
-      <c r="S24" s="66">
+      <c r="T24" s="42">
         <v>0</v>
       </c>
-      <c r="T24" s="66">
+      <c r="U24" s="42">
         <v>0</v>
       </c>
-      <c r="U24" s="66">
+      <c r="V24" s="42">
         <v>0</v>
       </c>
-      <c r="V24" s="66">
+      <c r="W24" s="42">
         <v>0</v>
       </c>
+      <c r="X24" s="42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25" s="51" t="s">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A25" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="P25" s="72" t="s">
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="Q25" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="Q25" s="10" t="s">
+      <c r="R25" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="R25" s="84">
+      <c r="S25" s="83">
         <v>1</v>
       </c>
-      <c r="S25" s="84">
+      <c r="T25" s="48">
         <v>1</v>
       </c>
-      <c r="T25" s="84">
+      <c r="U25" s="48">
         <v>1</v>
       </c>
-      <c r="U25" s="84">
+      <c r="V25" s="48">
         <v>1</v>
       </c>
-      <c r="V25" s="83">
+      <c r="W25" s="48">
         <v>1</v>
       </c>
+      <c r="X25" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:22" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="53"/>
       <c r="B26" s="53"/>
       <c r="C26" s="53"/>
       <c r="D26" s="53"/>
       <c r="E26" s="53"/>
       <c r="F26" s="53"/>
-      <c r="G26" t="s">
+      <c r="G26" s="53"/>
+      <c r="H26" t="s">
         <v>21</v>
       </c>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="11" t="s">
+      <c r="Q26" s="51"/>
+      <c r="R26" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="R26" s="82">
+      <c r="S26" s="83">
+        <v>1</v>
+      </c>
+      <c r="T26" s="47">
         <v>2</v>
       </c>
-      <c r="S26" s="83">
+      <c r="U26" s="5">
         <v>2</v>
       </c>
-      <c r="T26" s="83">
+      <c r="V26" s="5">
         <v>1</v>
       </c>
-      <c r="U26" s="83">
+      <c r="W26" s="5">
         <v>1</v>
       </c>
-      <c r="V26" s="86">
+      <c r="X26" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
-      <c r="B27" s="5">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5">
         <v>6</v>
       </c>
-      <c r="C27" s="5">
+      <c r="D27" s="5">
         <v>5</v>
       </c>
-      <c r="D27" s="5">
+      <c r="E27" s="5">
         <v>4</v>
       </c>
-      <c r="E27" s="5">
+      <c r="F27" s="5">
         <v>3</v>
       </c>
-      <c r="F27" s="5">
+      <c r="G27" s="5">
         <v>2</v>
       </c>
-      <c r="P27" s="73"/>
-      <c r="Q27" s="11" t="s">
+      <c r="Q27" s="51"/>
+      <c r="R27" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="R27" s="82">
+      <c r="S27" s="83">
+        <v>0</v>
+      </c>
+      <c r="T27" s="47">
         <v>1</v>
       </c>
-      <c r="S27" s="83">
+      <c r="U27" s="5">
         <v>1</v>
       </c>
-      <c r="T27" s="83">
+      <c r="V27" s="5">
         <v>0</v>
       </c>
-      <c r="U27" s="83">
+      <c r="W27" s="5">
         <v>0</v>
       </c>
-      <c r="V27" s="83">
+      <c r="X27" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="13">
         <f>(1-B13/B6)*100</f>
+        <v>-8.1060400210603021</v>
+      </c>
+      <c r="C28" s="13">
+        <f>(1-C13/C6)*100</f>
         <v>19.712354845605972</v>
       </c>
-      <c r="C28" s="22">
-        <f>(C13/C6-1)*100*-1</f>
+      <c r="D28" s="22">
+        <f>(D13/D6-1)*100*-1</f>
         <v>-10.034316486084705</v>
-      </c>
-      <c r="D28" s="22">
-        <f>(1-D13/D6)*100</f>
-        <v>5.1349900968669875</v>
       </c>
       <c r="E28" s="22">
         <f>(1-E13/E6)*100</f>
+        <v>5.1349900968669875</v>
+      </c>
+      <c r="F28" s="22">
+        <f>(1-F13/F6)*100</f>
         <v>39.646787295723954</v>
       </c>
-      <c r="F28" s="23">
-        <f>(1-F13/F6)*100</f>
+      <c r="G28" s="23">
+        <f>(1-G13/G6)*100</f>
         <v>54.248761019786464</v>
       </c>
-      <c r="G28" s="24">
-        <f>AVERAGE(B28:F28)</f>
-        <v>21.741715354379732</v>
-      </c>
       <c r="H28" s="24">
-        <f>AVERAGE(D28:F28)</f>
+        <f>AVERAGE(B28:G28)</f>
+        <v>16.767089458473063</v>
+      </c>
+      <c r="I28" s="24">
+        <f>AVERAGE(E28:G28)</f>
         <v>33.010179470792473</v>
       </c>
-      <c r="P28" s="73"/>
-      <c r="Q28" s="78" t="s">
+      <c r="Q28" s="51"/>
+      <c r="R28" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="R28" s="82">
-        <v>0</v>
       </c>
       <c r="S28" s="83">
         <v>0</v>
       </c>
-      <c r="T28" s="83">
+      <c r="T28" s="47">
         <v>0</v>
       </c>
-      <c r="U28" s="83">
+      <c r="U28" s="5">
         <v>0</v>
       </c>
-      <c r="V28" s="83">
+      <c r="V28" s="5">
         <v>0</v>
       </c>
+      <c r="W28" s="5">
+        <v>0</v>
+      </c>
+      <c r="X28" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="14">
         <f>(1-B18/B7)*100</f>
+        <v>5.0633738524317407</v>
+      </c>
+      <c r="C29" s="14">
+        <f>(1-C18/C7)*100</f>
         <v>75.997081946475703</v>
-      </c>
-      <c r="C29" s="24">
-        <f>(1-C18/C7)*100</f>
-        <v>96.128558126123451</v>
       </c>
       <c r="D29" s="24">
         <f>(1-D18/D7)*100</f>
-        <v>-21.540028516558827</v>
+        <v>96.128558126123451</v>
       </c>
       <c r="E29" s="24">
         <f>(1-E18/E7)*100</f>
+        <v>-21.540028516558827</v>
+      </c>
+      <c r="F29" s="24">
+        <f>(1-F18/F7)*100</f>
         <v>-42.192983274365623</v>
       </c>
-      <c r="F29" s="25">
-        <f>(1-F18/F7)*100</f>
+      <c r="G29" s="25">
+        <f>(1-G18/G7)*100</f>
         <v>-15.070844563432884</v>
       </c>
-      <c r="G29" s="24">
-        <f>AVERAGE(B29:F29)</f>
-        <v>18.664356743648362</v>
-      </c>
       <c r="H29" s="24">
-        <f>AVERAGE(D29:F29)</f>
+        <f>AVERAGE(B29:G29)</f>
+        <v>16.397526261778928</v>
+      </c>
+      <c r="I29" s="24">
+        <f>AVERAGE(E29:G29)</f>
         <v>-26.267952118119112</v>
       </c>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="78" t="s">
+      <c r="Q29" s="51"/>
+      <c r="R29" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="R29" s="82">
-        <v>1</v>
       </c>
       <c r="S29" s="83">
         <v>1</v>
       </c>
-      <c r="T29" s="83">
+      <c r="T29" s="47">
         <v>1</v>
       </c>
-      <c r="U29" s="83">
+      <c r="U29" s="5">
         <v>1</v>
       </c>
-      <c r="V29" s="83">
+      <c r="V29" s="5">
         <v>1</v>
       </c>
+      <c r="W29" s="5">
+        <v>1</v>
+      </c>
+      <c r="X29" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="15">
         <f>(1-B23/B8)*100</f>
+        <v>13.319881735886142</v>
+      </c>
+      <c r="C30" s="15">
+        <f>(1-C23/C8)*100</f>
         <v>51.506342722273146</v>
-      </c>
-      <c r="C30" s="26">
-        <f>(1-C23/C8)*100</f>
-        <v>92.754490090028312</v>
       </c>
       <c r="D30" s="26">
         <f>(1-D23/D8)*100</f>
-        <v>89.770508501616092</v>
+        <v>92.754490090028312</v>
       </c>
       <c r="E30" s="26">
         <f>(1-E23/E8)*100</f>
+        <v>89.770508501616092</v>
+      </c>
+      <c r="F30" s="26">
+        <f>(1-F23/F8)*100</f>
         <v>47.45173893884207</v>
       </c>
-      <c r="F30" s="27">
-        <f>(1-F23/F8)*100</f>
+      <c r="G30" s="27">
+        <f>(1-G23/G8)*100</f>
         <v>66.864119059860457</v>
       </c>
-      <c r="G30" s="24">
-        <f>AVERAGE(B30:F30)</f>
-        <v>69.669439862524015</v>
-      </c>
       <c r="H30" s="24">
-        <f>AVERAGE(D30:F30)</f>
+        <f>AVERAGE(B30:G30)</f>
+        <v>60.277846841417698</v>
+      </c>
+      <c r="I30" s="24">
+        <f>AVERAGE(E30:G30)</f>
         <v>68.028788833439535</v>
       </c>
-      <c r="P30" s="73"/>
-      <c r="Q30" s="78" t="s">
+      <c r="Q30" s="51"/>
+      <c r="R30" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="R30" s="28">
-        <v>0</v>
-      </c>
-      <c r="S30" s="28">
+      <c r="S30" s="83">
         <v>0</v>
       </c>
       <c r="T30" s="28">
@@ -58917,265 +59624,332 @@
       <c r="V30" s="28">
         <v>0</v>
       </c>
+      <c r="W30" s="28">
+        <v>0</v>
+      </c>
+      <c r="X30" s="28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="P31" s="72" t="s">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Q31" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="Q31" s="10" t="s">
+      <c r="R31" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="R31" s="80">
+      <c r="S31">
         <v>0</v>
       </c>
-      <c r="S31" s="80">
+      <c r="T31" s="46">
+        <v>0</v>
+      </c>
+      <c r="U31" s="46">
         <v>1</v>
       </c>
-      <c r="T31" s="80">
+      <c r="V31" s="46">
         <v>1</v>
       </c>
-      <c r="U31" s="80">
+      <c r="W31" s="46">
         <v>1</v>
       </c>
-      <c r="V31" s="80">
+      <c r="X31" s="46">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="P32" s="73"/>
-      <c r="Q32" s="11" t="s">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Q32" s="51"/>
+      <c r="R32" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="R32" s="81">
+      <c r="S32">
         <v>2</v>
       </c>
-      <c r="S32" s="81">
+      <c r="T32" s="47">
         <v>2</v>
       </c>
-      <c r="T32" s="81">
+      <c r="U32" s="47">
         <v>2</v>
       </c>
-      <c r="U32" s="81">
+      <c r="V32" s="47">
+        <v>2</v>
+      </c>
+      <c r="W32" s="47">
         <v>1</v>
       </c>
-      <c r="V32" s="81">
+      <c r="X32" s="47">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="51" t="s">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A33" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="11" t="s">
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="R33" s="81">
+      <c r="S33">
         <v>1</v>
       </c>
-      <c r="S33" s="81">
+      <c r="T33" s="47">
+        <v>1</v>
+      </c>
+      <c r="U33" s="47">
         <v>0</v>
       </c>
-      <c r="T33" s="81">
+      <c r="V33" s="47">
         <v>1</v>
       </c>
-      <c r="U33" s="81">
+      <c r="W33" s="47">
         <v>0</v>
       </c>
-      <c r="V33" s="81">
+      <c r="X33" s="47">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="53"/>
       <c r="B34" s="53"/>
       <c r="C34" s="53"/>
       <c r="D34" s="53"/>
       <c r="E34" s="53"/>
       <c r="F34" s="53"/>
-      <c r="P34" s="73"/>
-      <c r="Q34" s="78" t="s">
+      <c r="G34" s="53"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="R34" s="82">
+      <c r="S34">
         <v>0</v>
       </c>
-      <c r="S34" s="82">
+      <c r="T34" s="47">
+        <v>0</v>
+      </c>
+      <c r="U34" s="47">
         <v>1</v>
       </c>
-      <c r="T34" s="82">
+      <c r="V34" s="47">
         <v>1</v>
       </c>
-      <c r="U34" s="75">
+      <c r="W34" s="16">
         <v>0</v>
       </c>
-      <c r="V34" s="75">
+      <c r="X34" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
-      <c r="B35" s="5">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5">
         <v>6</v>
       </c>
-      <c r="C35" s="5">
+      <c r="D35" s="5">
         <v>5</v>
       </c>
-      <c r="D35" s="5">
+      <c r="E35" s="5">
         <v>4</v>
       </c>
-      <c r="E35" s="5">
+      <c r="F35" s="5">
         <v>3</v>
       </c>
-      <c r="F35" s="5">
+      <c r="G35" s="5">
         <v>2</v>
       </c>
-      <c r="P35" s="73"/>
-      <c r="Q35" s="78" t="s">
+      <c r="Q35" s="51"/>
+      <c r="R35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="R35" s="82">
+      <c r="S35">
         <v>1</v>
       </c>
-      <c r="S35" s="82">
+      <c r="T35" s="47">
         <v>1</v>
       </c>
-      <c r="T35" s="82">
+      <c r="U35" s="47">
         <v>1</v>
       </c>
-      <c r="U35" s="75">
+      <c r="V35" s="47">
         <v>1</v>
       </c>
-      <c r="V35" s="75">
+      <c r="W35" s="16">
         <v>1</v>
       </c>
+      <c r="X35" s="16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="13">
-        <f>B6-B13</f>
+      <c r="B36" s="76"/>
+      <c r="C36" s="13">
+        <f>C6-C13</f>
         <v>5.6454818695783997E-3</v>
       </c>
-      <c r="C36" s="13">
-        <f t="shared" ref="C36:F36" si="7">C6-C13</f>
+      <c r="D36" s="13">
+        <f t="shared" ref="D36:G36" si="5">D6-D13</f>
         <v>-1.2364303693174986E-3</v>
       </c>
-      <c r="D36" s="13">
-        <f t="shared" si="7"/>
+      <c r="E36" s="13">
+        <f t="shared" si="5"/>
         <v>6.8244989961380002E-4</v>
       </c>
-      <c r="E36" s="13">
-        <f t="shared" si="7"/>
+      <c r="F36" s="13">
+        <f t="shared" si="5"/>
         <v>6.6207526251672987E-3</v>
       </c>
-      <c r="F36" s="13">
-        <f t="shared" si="7"/>
+      <c r="G36" s="13">
+        <f t="shared" si="5"/>
         <v>1.031009759753939E-2</v>
       </c>
-      <c r="P36" s="74"/>
-      <c r="Q36" s="79" t="s">
+      <c r="Q36" s="67"/>
+      <c r="R36" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="R36" s="85">
+      <c r="S36">
         <v>1</v>
       </c>
-      <c r="S36" s="66">
+      <c r="T36" s="49">
         <v>1</v>
       </c>
-      <c r="T36" s="66">
+      <c r="U36" s="42">
+        <v>1</v>
+      </c>
+      <c r="V36" s="42">
         <v>0</v>
       </c>
-      <c r="U36" s="66">
+      <c r="W36" s="42">
         <v>0</v>
       </c>
-      <c r="V36" s="66">
+      <c r="X36" s="42">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="14">
-        <f>B7-B18</f>
+      <c r="B37" s="77"/>
+      <c r="C37" s="14">
+        <f>C7-C18</f>
         <v>3.6126576364040396E-2</v>
       </c>
-      <c r="C37" s="14">
-        <f t="shared" ref="C37:F37" si="8">C7-C18</f>
+      <c r="D37" s="14">
+        <f t="shared" ref="D37:G37" si="6">D7-D18</f>
         <v>8.9940947014838429E-2</v>
       </c>
-      <c r="D37" s="14">
-        <f t="shared" si="8"/>
+      <c r="E37" s="14">
+        <f t="shared" si="6"/>
         <v>-1.64261646568775E-3</v>
       </c>
-      <c r="E37" s="14">
-        <f t="shared" si="8"/>
+      <c r="F37" s="14">
+        <f t="shared" si="6"/>
         <v>-2.4855053052306201E-3</v>
       </c>
-      <c r="F37" s="14">
-        <f t="shared" si="8"/>
+      <c r="G37" s="14">
+        <f t="shared" si="6"/>
         <v>-8.0390693619847037E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="15">
-        <f>B8-B23</f>
+      <c r="B38" s="78"/>
+      <c r="C38" s="15">
+        <f>C8-C23</f>
         <v>0.14261224865913402</v>
       </c>
-      <c r="C38" s="15">
-        <f t="shared" ref="C38:F38" si="9">C8-C23</f>
+      <c r="D38" s="15">
+        <f t="shared" ref="D38:G38" si="7">D8-D23</f>
         <v>1.0908050760626735</v>
       </c>
-      <c r="D38" s="15">
-        <f t="shared" si="9"/>
+      <c r="E38" s="15">
+        <f t="shared" si="7"/>
         <v>1.0350327715277621</v>
       </c>
-      <c r="E38" s="15">
-        <f t="shared" si="9"/>
+      <c r="F38" s="15">
+        <f t="shared" si="7"/>
         <v>7.7838920056819708E-2</v>
       </c>
-      <c r="F38" s="15">
-        <f t="shared" si="9"/>
+      <c r="G38" s="15">
+        <f t="shared" si="7"/>
         <v>8.8929757475852494E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P19:P24"/>
-    <mergeCell ref="P25:P30"/>
-    <mergeCell ref="P31:P36"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="R17:V17"/>
+    <mergeCell ref="Z5:Z7"/>
+    <mergeCell ref="Z11:Z13"/>
+    <mergeCell ref="Z8:Z10"/>
+    <mergeCell ref="Q5:Q7"/>
+    <mergeCell ref="Q8:Q10"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="Y5:Y7"/>
+    <mergeCell ref="Y8:Y10"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="Q19:Q24"/>
+    <mergeCell ref="Q25:Q30"/>
+    <mergeCell ref="Q31:Q36"/>
+    <mergeCell ref="A3:G4"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="T17:X17"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A25:F26"/>
-    <mergeCell ref="A33:F34"/>
-    <mergeCell ref="X5:X7"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="X8:X10"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="P8:P10"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="W5:W7"/>
-    <mergeCell ref="W8:W10"/>
-    <mergeCell ref="W11:W13"/>
+    <mergeCell ref="A25:G26"/>
+    <mergeCell ref="A33:G34"/>
   </mergeCells>
-  <conditionalFormatting sqref="B10:B11">
+  <conditionalFormatting sqref="C10:C11">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:D11">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E11">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:F11">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -59187,7 +59961,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C11">
+  <conditionalFormatting sqref="G10:G11">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -59199,8 +59973,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D11">
-    <cfRule type="colorScale" priority="23">
+  <conditionalFormatting sqref="C20:C22">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -59211,8 +59985,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E11">
-    <cfRule type="colorScale" priority="22">
+  <conditionalFormatting sqref="D20:D22">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -59223,8 +59997,176 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10:F11">
-    <cfRule type="colorScale" priority="21">
+  <conditionalFormatting sqref="E20:E22">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:F22">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:G22">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:C12">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:D12">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E12">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:F12">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:G12">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C17">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:D17">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15:E17">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15:F17">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:G17">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:B12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:B17">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -59236,174 +60178,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B22">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C22">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D22">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E22">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F22">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:B12">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C12">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D12">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E12">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10:F12">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:B17">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C17">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D17">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15:E17">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15:F17">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
